--- a/data/Chonchi.xlsx
+++ b/data/Chonchi.xlsx
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,16 +3266,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>300</v>
+        <v>588</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>588</v>
+        <v>300</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
+          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>Empresa Constructora Contex Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
+          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Empresa Constructora Contex Ltda.</t>
+          <t>ORIZON S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>2000</v>
+        <v>150</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
+          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8315,7 +8315,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
+          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
+          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Jaime Orlando Muena Andrade</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
+          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8459,7 +8459,7 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
+          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Jaime Orlando Muena Andrade</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
+          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
+          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Cesár Washington Mena Pinto</t>
+          <t>Victor Aliro Cárcamo Gómez</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
+          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Victor Aliro Cárcamo Gómez</t>
+          <t>Cesár Washington Mena Pinto</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">

--- a/data/Chonchi.xlsx
+++ b/data/Chonchi.xlsx
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,16 +3266,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>588</v>
+        <v>300</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>300</v>
+        <v>588</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
+          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Empresa Constructora Contex Ltda.</t>
+          <t>ORIZON S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>2000</v>
+        <v>150</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
+          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>Empresa Constructora Contex Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
+          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8315,7 +8315,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
+          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
+          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Jaime Orlando Muena Andrade</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
+          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8459,7 +8459,7 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
+          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Jaime Orlando Muena Andrade</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
+          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
+          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Victor Aliro Cárcamo Gómez</t>
+          <t>Cesár Washington Mena Pinto</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
+          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Cesár Washington Mena Pinto</t>
+          <t>Victor Aliro Cárcamo Gómez</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">

--- a/data/Chonchi.xlsx
+++ b/data/Chonchi.xlsx
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,16 +3266,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>588</v>
+        <v>300</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>300</v>
+        <v>588</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
+          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Empresa Constructora Contex Ltda.</t>
+          <t>ORIZON S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>2000</v>
+        <v>150</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
+          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>Empresa Constructora Contex Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
+          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8315,7 +8315,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
+          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
+          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Jaime Orlando Muena Andrade</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
+          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8459,7 +8459,7 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
+          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Jaime Orlando Muena Andrade</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
+          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
+          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Victor Aliro Cárcamo Gómez</t>
+          <t>Cesár Washington Mena Pinto</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
+          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Cesár Washington Mena Pinto</t>
+          <t>Victor Aliro Cárcamo Gómez</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRANSMISIÓN DEL SUR S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">

--- a/data/Chonchi.xlsx
+++ b/data/Chonchi.xlsx
@@ -10471,7 +10471,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">

--- a/data/Chonchi.xlsx
+++ b/data/Chonchi.xlsx
@@ -2455,7 +2455,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,16 +3266,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>300</v>
+        <v>588</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>588</v>
+        <v>300</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
+          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>Empresa Constructora Contex Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
+          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Empresa Constructora Contex Ltda.</t>
+          <t>ORIZON S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>2000</v>
+        <v>150</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
+          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8315,7 +8315,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
+          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
+          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Jaime Orlando Muena Andrade</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
+          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8459,7 +8459,7 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
+          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Jaime Orlando Muena Andrade</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
+          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
+          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Cesár Washington Mena Pinto</t>
+          <t>Victor Aliro Cárcamo Gómez</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
+          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Victor Aliro Cárcamo Gómez</t>
+          <t>Cesár Washington Mena Pinto</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">

--- a/data/Chonchi.xlsx
+++ b/data/Chonchi.xlsx
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>Empresa Pesquera Apiao S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>Empresa Pesquera Apiao S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">

--- a/data/Chonchi.xlsx
+++ b/data/Chonchi.xlsx
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,16 +3266,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>588</v>
+        <v>300</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>300</v>
+        <v>588</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Empresa Pesquera Apiao S.A.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Empresa Pesquera Apiao S.A.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
+          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Empresa Constructora Contex Ltda.</t>
+          <t>ORIZON S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>2000</v>
+        <v>150</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
+          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>Empresa Constructora Contex Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
+          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8315,7 +8315,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
+          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
+          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Jaime Orlando Muena Andrade</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
+          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8459,7 +8459,7 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
+          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Jaime Orlando Muena Andrade</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
+          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
+          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Victor Aliro Cárcamo Gómez</t>
+          <t>Cesár Washington Mena Pinto</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
+          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Cesár Washington Mena Pinto</t>
+          <t>Victor Aliro Cárcamo Gómez</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">

--- a/data/Chonchi.xlsx
+++ b/data/Chonchi.xlsx
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,16 +3266,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>588</v>
+        <v>300</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>300</v>
+        <v>588</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
+          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Empresa Constructora Contex Ltda.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>2000</v>
+        <v>150</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
+          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>Empresa Constructora Contex Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
+          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8315,7 +8315,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
+          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
+          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Jaime Orlando Muena Andrade</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
+          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8459,7 +8459,7 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
+          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Jaime Orlando Muena Andrade</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
+          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
+          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Victor Aliro Cárcamo Gómez</t>
+          <t>Cesár Washington Mena Pinto</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
+          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Cesár Washington Mena Pinto</t>
+          <t>Victor Aliro Cárcamo Gómez</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">

--- a/data/Chonchi.xlsx
+++ b/data/Chonchi.xlsx
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,16 +3266,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>300</v>
+        <v>588</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>588</v>
+        <v>300</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
+          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>Empresa Constructora Contex Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
+          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Empresa Constructora Contex Ltda.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>2000</v>
+        <v>150</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
+          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8315,7 +8315,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
+          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
+          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Jaime Orlando Muena Andrade</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
+          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8459,7 +8459,7 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
+          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Jaime Orlando Muena Andrade</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
+          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
+          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Cesár Washington Mena Pinto</t>
+          <t>Victor Aliro Cárcamo Gómez</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
+          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Victor Aliro Cárcamo Gómez</t>
+          <t>Cesár Washington Mena Pinto</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">

--- a/data/Chonchi.xlsx
+++ b/data/Chonchi.xlsx
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,16 +3266,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>588</v>
+        <v>300</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>300</v>
+        <v>588</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
+          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Empresa Constructora Contex Ltda.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>2000</v>
+        <v>150</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
+          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>Empresa Constructora Contex Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
+          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8315,7 +8315,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
+          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
+          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Jaime Orlando Muena Andrade</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
+          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8459,7 +8459,7 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
+          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Jaime Orlando Muena Andrade</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
+          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
+          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Victor Aliro Cárcamo Gómez</t>
+          <t>Cesár Washington Mena Pinto</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
+          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Cesár Washington Mena Pinto</t>
+          <t>Victor Aliro Cárcamo Gómez</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">

--- a/data/Chonchi.xlsx
+++ b/data/Chonchi.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J216"/>
+  <dimension ref="A1:J217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>?PLANTA DE PROCESO CHONCHI ST. ANDREWS?</t>
+          <t>Ampliación Planta Procesadora de Mitílidos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ST ANDREWS SMOKY DELICACIES S.A.</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>23000</v>
+        <v>12600</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>05/01/2022</t>
+          <t>16/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154608078&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158390164&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Eólico Tablaruca</t>
+          <t>?PLANTA DE PROCESO CHONCHI ST. ANDREWS?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Eólica Tablaruca S.A.</t>
+          <t>ST ANDREWS SMOKY DELICACIES S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>170000</v>
+        <v>23000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>27/11/2017</t>
+          <t>05/01/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2134534925&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154608078&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Captación Adicional Cheto para Mini Central de Pasada Hidroeléctrica Dongo SpA</t>
+          <t>Parque Eólico Tablaruca</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Dongo Spa</t>
+          <t>Eólica Tablaruca S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>136</v>
+        <v>170000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18/07/2017</t>
+          <t>27/11/2017</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132493527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2134534925&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Cultivo de Mitílidos, Sur Punta Terao , Pilpilehue, Comuna de Chonchi, Región de los Lagos. Pert Nº 211103059</t>
+          <t>Captación Adicional Cheto para Mini Central de Pasada Hidroeléctrica Dongo SpA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Hidroeléctrica Dongo Spa</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>29/12/2015</t>
+          <t>18/07/2017</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131040092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132493527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102918 ESTERO CASTRO, RIO BLANCO LTDA.</t>
+          <t>Modificación de Proyecto Técnico Cultivo de Mitílidos, Sur Punta Terao , Pilpilehue, Comuna de Chonchi, Región de los Lagos. Pert Nº 211103059</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SOCIEDAD INDUSTRIAL Y COMERCIAL RIO BLANCO LTDA.</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/12/2015</t>
+          <t>29/12/2015</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131007655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131040092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, CANAL YAL, QUINCHED, COMUNA DE CHONCHI (SOL Nº 213103045)"</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102918 ESTERO CASTRO, RIO BLANCO LTDA.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Edgardo Remigio Bórquez Bórquez</t>
+          <t>SOCIEDAD INDUSTRIAL Y COMERCIAL RIO BLANCO LTDA.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>286</v>
+        <v>70</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>31/07/2015</t>
+          <t>23/12/2015</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130657976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131007655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Cultivo Mitílidos y Abalones, Sur Punta Terao, comuna de Chonchi, Región de los Lagos. Código Centro 102550, Nº Pert 210103173</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, CANAL YAL, QUINCHED, COMUNA DE CHONCHI (SOL Nº 213103045)"</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cultivos Terao S.A.</t>
+          <t>Edgardo Remigio Bórquez Bórquez</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3350</v>
+        <v>286</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>17/06/2015</t>
+          <t>31/07/2015</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130508325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130657976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO CENTRO DE CULTIVO MITILIDOS Y ABALONES, SUR PUNTA TERAO , COMUNA DE CHONCHI, REGIÓN DE LOS LAGOS. Nº Pert 210103172</t>
+          <t>Modificación de Proyecto Técnico Cultivo Mitílidos y Abalones, Sur Punta Terao, comuna de Chonchi, Región de los Lagos. Código Centro 102550, Nº Pert 210103173</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -779,11 +779,11 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3000</v>
+        <v>3350</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>28/05/2015</t>
+          <t>17/06/2015</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130436821&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130508325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Astilleros Chonchi</t>
+          <t>MODIFICACION DE PROYECTO TECNICO CENTRO DE CULTIVO MITILIDOS Y ABALONES, SUR PUNTA TERAO , COMUNA DE CHONCHI, REGIÓN DE LOS LAGOS. Nº Pert 210103172</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Astilleros Chiloé S.A.</t>
+          <t>Cultivos Terao S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>19/02/2015</t>
+          <t>28/05/2015</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130238646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130436821&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Empréstito Andrade, comuna de Chonchi, Región de Los Lagos</t>
+          <t>Declaración de Impacto Ambiental Astilleros Chonchi</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Contructora Tara Compu Ltda</t>
+          <t>Astilleros Chiloé S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>145</v>
+        <v>1000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>09/02/2015</t>
+          <t>19/02/2015</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130149807&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130238646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Astilleros Chonchi</t>
+          <t>Empréstito Andrade, comuna de Chonchi, Región de Los Lagos</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Astilleros Chiloé S.A.</t>
+          <t>Contructora Tara Compu Ltda</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1000</v>
+        <v>145</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>19/01/2015</t>
+          <t>09/02/2015</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130156349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130149807&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, ESTERO CASTRO - SUR PUNTA CASTILLO - PERT N° 214103009</t>
+          <t>Declaración de Impacto Ambiental Astilleros Chonchi</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CULTIVO DE CHORITOS BAHIA QUINCHED LIMITADA</t>
+          <t>Astilleros Chiloé S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>23/10/2014</t>
+          <t>19/01/2015</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129878172&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130156349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Piscicultura Trainel</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, ESTERO CASTRO - SUR PUNTA CASTILLO - PERT N° 214103009</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>CULTIVO DE CHORITOS BAHIA QUINCHED LIMITADA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1300</v>
+        <v>150</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/06/2014</t>
+          <t>23/10/2014</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129515486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129878172&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico, Sur Punta Terao, Comuna de Chonchi, Región de los Lagos, Pert. Nº 210103170</t>
+          <t>Piscicultura Trainel</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>50</v>
+        <v>1300</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>23/07/2013</t>
+          <t>20/06/2014</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8322283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129515486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Modificación Proyecto Técnico, Sur Punta Terao, Comuna de Chonchi, Región de los Lagos, Pert. Nº 210103170</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,20 +1106,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>23/07/2013</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8322283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,40 +1192,40 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Eólico Cateao</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Eólica Cateao Sp.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>224000</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>27/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8192018&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,30 +1240,30 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Parque Eólico Cateao</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Eólica Cateao Sp.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>250</v>
+        <v>224000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>27/05/2013</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8192018&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>"Manejo De Mortalidad Mediante Sistema De Ensilaje En Centro De Cultivo Sector Linlinao"</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>90</v>
+        <v>2500</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>03/05/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8127069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>"Manejo De Mortalidad Mediante Sistema De Ensilaje En Centro De Cultivo Sector Linlinao"</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2475</v>
+        <v>90</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>03/05/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8127069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PISCICULTURA RÍO TABIL (CURACO DE VILUPULLI), COMUNA DE CHONCHI, PROVINCIA DE CHILOÉ, Xª REGIÓN</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Salmones Llanchid Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>625</v>
+        <v>250</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>02/04/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8025492&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>PISCICULTURA RÍO TABIL (CURACO DE VILUPULLI), COMUNA DE CHONCHI, PROVINCIA DE CHILOÉ, Xª REGIÓN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Salmones Llanchid Ltda.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>250</v>
+        <v>625</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>02/04/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8025492&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Manejo De Mortalidad Mediante Sistema De Ensilaje En Centro De Cultivo Sector Linlinao"</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,20 +1634,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Salmones Mainstream S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>90</v>
+        <v>2475</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>14/12/2012</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7624439&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Cultivo Mitilidos, Terao Sur, Pilpilehue, comuna de Chonchi, Región de los Lagos. Nº Pert 210103171</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Manejo De Mortalidad Mediante Sistema De Ensilaje En Centro De Cultivo Sector Linlinao"</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Salmones Mainstream S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>29/08/2012</t>
+          <t>14/12/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7188344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7624439&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Modificación en Planta de Proceso de Salmones Chonchi Modificación Planta de Proceso Salmones Chonchi</t>
+          <t>Modificación de Proyecto Técnico Cultivo Mitilidos, Terao Sur, Pilpilehue, comuna de Chonchi, Región de los Lagos. Nº Pert 210103171</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Procesadora Hueñocoihue SpA.</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3500</v>
+        <v>50</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>17/08/2012</t>
+          <t>29/08/2012</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7244279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7188344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD USANDO SISTEMA DE ENSILAJE</t>
+          <t>Modificación en Planta de Proceso de Salmones Chonchi Modificación Planta de Proceso Salmones Chonchi</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Procesadora Hueñocoihue SpA.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>45</v>
+        <v>3500</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>01/08/2012</t>
+          <t>17/08/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7110102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7244279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>MANEJO DE MORTALIDAD USANDO SISTEMA DE ENSILAJE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>01/08/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7110102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Parque Eólico Cateao</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,20 +1874,20 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Eólica Cateao Sp.A.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>224000</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>16/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6803159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR QUINCHED, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 205103188)"</t>
+          <t>Parque Eólico Cateao</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>JOSE MILTON VERA VERA</t>
+          <t>Eólica Cateao Sp.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>56</v>
+        <v>224000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>13/04/2012</t>
+          <t>16/04/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6806089&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6803159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR QUINCHED, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 205103188)"</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>JOSE MILTON VERA VERA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>13/04/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6806089&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DE PRODUCCIÓN CENTRO PISCICOLA LAGO TARAHUIN, AL NORTE DEL SECTOR TARAHUIN; Nº PERT: 210103180.</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Tarasalmon Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6124860&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Hidroeléctrica de Pasada Collil</t>
+          <t>REGULARIZACIÓN DE PRODUCCIÓN CENTRO PISCICOLA LAGO TARAHUIN, AL NORTE DEL SECTOR TARAHUIN; Nº PERT: 210103180.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Maderas Tantauco S.A.</t>
+          <t>Tarasalmon Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>12500</v>
+        <v>1500</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5991258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6124860&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA TAUCO, X REGION" Nº de Ingreso a Trámite: 211103008 (Código del Centro: 100416)</t>
+          <t>Hidroeléctrica de Pasada Collil</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Maderas Tantauco S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2000</v>
+        <v>12500</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>22/07/2011</t>
+          <t>09/09/2011</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5991258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DIA Manejo de Mortalidad Usando Sistema de Ensilaje Centro Pilpilehue Código 101690</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA TAUCO, X REGION" Nº de Ingreso a Trámite: 211103008 (Código del Centro: 100416)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>47</v>
+        <v>2000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>26/05/2011</t>
+          <t>22/07/2011</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5655265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Centro de Reciclaje y Manejo de Residuos Sólidos No Peligrosos PULPITO</t>
+          <t>DIA Manejo de Mortalidad Usando Sistema de Ensilaje Centro Pilpilehue Código 101690</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Abalones Pacific Star S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2000</v>
+        <v>47</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>02/05/2011</t>
+          <t>26/05/2011</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5582564&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5655265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>21/04/2011</t>
+          <t>02/05/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5582564&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 100367 MOD. PROYECTO TECNICO CENTRO DE CULTIVOS 100367</t>
+          <t>Centro de Reciclaje y Manejo de Residuos Sólidos No Peligrosos PULPITO</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>Abalones Pacific Star S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>23/03/2011</t>
+          <t>21/04/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5438516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad con Sistema de Ensilaje en Centro de Cultivo Tauco - X Región</t>
+          <t>MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 100367 MOD. PROYECTO TECNICO CENTRO DE CULTIVOS 100367</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>26</v>
+        <v>2000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>22/03/2011</t>
+          <t>23/03/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5438516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad mediante Ensilaje en Centro de Cultivo de Salmones Teupa</t>
+          <t>Manejo de Mortalidad con Sistema de Ensilaje en Centro de Cultivo Tauco - X Región</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>15/03/2011</t>
+          <t>22/03/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5377421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en el Sector Zona Los Pinos, Lago Huillinco, para los Centros de Esmoltificación de Salmones: Contento - Huillinco (100.617), Cucao (100.618) y Ensenada Notue (100.616)".</t>
+          <t>Manejo de Mortalidad mediante Ensilaje en Centro de Cultivo de Salmones Teupa</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>14/03/2011</t>
+          <t>15/03/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5377421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Mortalidad Piscicultura Rio Alcaldeo</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en el Sector Zona Los Pinos, Lago Huillinco, para los Centros de Esmoltificación de Salmones: Contento - Huillinco (100.617), Cucao (100.618) y Ensenada Notue (100.616)".</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>28/02/2011</t>
+          <t>14/03/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5401726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Modificación en la producción del centro de cultivo de mitilidos Canal Hudson, al sudeste de Punta Coquemcura, Isla Quinchao, pert Nº210103001, X Región</t>
+          <t>Sistema de Tratamiento de Mortalidad Piscicultura Rio Alcaldeo</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Pesquera El Golfo S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>25/02/2011</t>
+          <t>28/02/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5396122&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5401726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Modificación en la producción del centro de cultivo de mitilidos Ensenada Quinchao, al sureste de Punta Coquemcura, Isla Quinchao, pert Nº210103002, X Región</t>
+          <t>Modificación en la producción del centro de cultivo de mitilidos Canal Hudson, al sudeste de Punta Coquemcura, Isla Quinchao, pert Nº210103001, X Región</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5396482&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5396122&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje. Centro de Mar Camahue</t>
+          <t>Modificación en la producción del centro de cultivo de mitilidos Ensenada Quinchao, al sureste de Punta Coquemcura, Isla Quinchao, pert Nº210103002, X Región</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Pesquera El Golfo S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>42</v>
+        <v>600</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>25/01/2011</t>
+          <t>25/02/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273750&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5396482&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Centro Lago Natri II; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje 0</t>
+          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje. Centro de Mar Camahue</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>21/01/2011</t>
+          <t>25/01/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5267683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273750&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema deEnsilaje de MOrtalidad en Centro de Cultivo de Salmones Aulen</t>
+          <t>Centro Lago Natri II; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje 0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Servicios Integrales S.A.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>20/12/2010</t>
+          <t>21/01/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5267683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Tumaumon</t>
+          <t>Implementación y Operación de Sistema deEnsilaje de MOrtalidad en Centro de Cultivo de Salmones Aulen</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Servicios Integrales S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5177718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje. Centro de Mar Lincay Modificación a Ensilaje, Centro de Mar Lincay</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Tumaumon</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>20/12/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5126820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5177718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje. Piscicultura Río Trainel</t>
+          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje. Centro de Mar Lincay Modificación a Ensilaje, Centro de Mar Lincay</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>14/10/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5005860&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5126820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Centro Lago Natri I; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
+          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje. Piscicultura Río Trainel</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>14/10/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4880797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5005860&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje. Piscicultura Eco-Smolt Rauco</t>
+          <t>Centro Lago Natri I; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>24/08/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4859677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4880797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>"DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE CULTIVO DE MITÍLIDOS, QUINCHED, CANAL YAL, CHONCHI Nº PERT: 203103140"</t>
+          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje. Piscicultura Eco-Smolt Rauco</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>16/08/2010</t>
+          <t>24/08/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4842425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4859677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Implementación Sistema de ensilaje Centro Huillinco Sur</t>
+          <t>"DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE CULTIVO DE MITÍLIDOS, QUINCHED, CANAL YAL, CHONCHI Nº PERT: 203103140"</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>48</v>
+        <v>750</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>09/07/2010</t>
+          <t>16/08/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4754852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4842425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
+          <t>Implementación Sistema de ensilaje Centro Huillinco Sur</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>588</v>
+        <v>48</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>09/07/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4754852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>300</v>
+        <v>588</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CALETA LINLINAO, SURGIDERO QUINCHED COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103161)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>588</v>
+        <v>300</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>18/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4686700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION EN CENTRO DE CULTIVO DE SALMONES AGUANTAO (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CALETA LINLINAO, SURGIDERO QUINCHED COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103161)"</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2000</v>
+        <v>588</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>22/12/2009</t>
+          <t>18/06/2010</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4265718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4686700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN VERTEDERO DICHAM (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION EN CENTRO DE CULTIVO DE SALMONES AGUANTAO (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>FERNANDO PATRICIO HERNANDEZ DIAZ</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>18/12/2009</t>
+          <t>22/12/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4274580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4265718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>MODIFICACIÓN VERTEDERO DICHAM (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>FERNANDO PATRICIO HERNANDEZ DIAZ</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>18/12/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4274580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Liquidos Planta de Procesos Antarfood - Chonchi (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Antarfood S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>27/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN NUEVA PLANTA DE PROCESO SALMONES ANTÁRTICA S.A (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Liquidos Planta de Procesos Antarfood - Chonchi (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Antarfood S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>24/11/2009</t>
+          <t>27/11/2009</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4220857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MODIFICACIÓN NUEVA PLANTA DE PROCESO SALMONES ANTÁRTICA S.A (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>377</v>
+        <v>80</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>24/11/2009</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4220857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Modificación de Producción Centro de Cultivo PAC-MAR, Código Centro 102195 (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>INTERSEAFOOD CHILE S.A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>113</v>
+        <v>377</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>14/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4074897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Ampliacion de Proyecto Tecnico para el Cultivo de Mitilidos, Canal Yal, Sector Sur Caleta Linlinao, Villamarina - 2 (e-seia)</t>
+          <t>Modificación de Producción Centro de Cultivo PAC-MAR, Código Centro 102195 (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Orietta De Las Mercedes Bravo Sáez</t>
+          <t>INTERSEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>02/10/2009</t>
+          <t>14/10/2009</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4093283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4074897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Plan de Cierre y Sellado Vertedero Municipal Comuna de Chonchi (e-seia)</t>
+          <t>Ampliacion de Proyecto Tecnico para el Cultivo de Mitilidos, Canal Yal, Sector Sur Caleta Linlinao, Villamarina - 2 (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chonchi</t>
+          <t>Orietta De Las Mercedes Bravo Sáez</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>531</v>
+        <v>80</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>22/06/2009</t>
+          <t>02/10/2009</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3840244&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4093283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Nº PERT 200103154, Bahía Yal, Noroeste Punta Terao, Comuna de Chonchi Solicitud de Concesión de Acuicultura Nº PERT 2001 (e-seia)</t>
+          <t>Plan de Cierre y Sellado Vertedero Municipal Comuna de Chonchi (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>GALICIA YANET ANDRADE BARRÍA</t>
+          <t>Ilustre Municipalidad de Chonchi</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>151</v>
+        <v>531</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>19/06/2009</t>
+          <t>22/06/2009</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3860838&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3840244&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Solicitud de Concesión de Acuicultura Nº PERT 200103154, Bahía Yal, Noroeste Punta Terao, Comuna de Chonchi Solicitud de Concesión de Acuicultura Nº PERT 2001 (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>GALICIA YANET ANDRADE BARRÍA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>19/06/2009</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3860838&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO PAC MAR SECTOR TERAO, CÓDIGO CENTRO 102195 COMUNA DE CHONCHI, PROVINCIA DE CHILOÉ REGIÓN DE LOS LAGOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,20 +3938,20 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>INTERSEAFOOD CHILE S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3265275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>MODIFICACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO PAC MAR SECTOR TERAO, CÓDIGO CENTRO 102195 COMUNA DE CHONCHI, PROVINCIA DE CHILOÉ REGIÓN DE LOS LAGOS (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>INTERSEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3265275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PEQUEÑA CENTRAL HIDROELECTRICA DONGO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Klaus Von Storch Krugen</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>9000</v>
+        <v>20</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>27/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3002745&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Hidroelectrica Dongo Limitada</t>
+          <t>Klaus Von Storch Krugen</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -4239,17 +4239,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>02/06/2008</t>
+          <t>27/06/2008</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2942301&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3002745&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>PEQUEÑA CENTRAL HIDROELECTRICA DONGO (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,20 +4274,20 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Hidroelectrica Dongo Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>20</v>
+        <v>9000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>02/06/2008</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2942301&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico para el cultivo de mitílidos, Linlinao Canal Yal, Villa Marina - 1 N° Pert 206103192 (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Villa Marina Cultivos Limitada.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>01/02/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2682185&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Ampliación de Proyecto Técnico para el cultivo de mitílidos, Linlinao Canal Yal, Villa Marina - 1 N° Pert 206103192 (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Sociedad Comercial Villa Marina Cultivos Limitada.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>01/02/2008</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2682185&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Piscicultura de Recirculación Lago Verde (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>14/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2398063&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico para el cultivo de Mitílidos, Abalón Rojo y Macrocystis sp. del Centro Vilupulli, Sector Canal Lemuy, Comuna de Chonchi, Provincia de Chiloé, X Región de Los Lagos. (e-seia)</t>
+          <t>Piscicultura de Recirculación Lago Verde (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>251</v>
+        <v>8000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>06/09/2007</t>
+          <t>14/09/2007</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2365943&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2398063&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación de Proyecto Técnico para el cultivo de Mitílidos, Abalón Rojo y Macrocystis sp. del Centro Vilupulli, Sector Canal Lemuy, Comuna de Chonchi, Provincia de Chiloé, X Región de Los Lagos. (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>06/09/2007</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2365943&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Disposición Final Riles (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ROJAS Y SANCHEZ LIMITADA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>29/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2084510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTA TERAO Nº SOL. 200103175 (e-seia)</t>
+          <t>Disposición Final Riles (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
+          <t>ROJAS Y SANCHEZ LIMITADA</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>15/03/2007</t>
+          <t>29/03/2007</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2042254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2084510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Ampliación Proyecto Técnico Cultivo de Mitílidos Cultivos Marinos Bahía Yal (CMBY) (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTA TERAO Nº SOL. 200103175 (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>31/01/2007</t>
+          <t>15/03/2007</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1977050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2042254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ampliación Proyecto Técnico Nº 99103007 para cultivo de Mitílidos Cultivos Marinos Bahía Yal (CMBY II) (e-seia)</t>
+          <t>Ampliación Proyecto Técnico Cultivo de Mitílidos Cultivos Marinos Bahía Yal (CMBY) (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>380</v>
+        <v>111</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1996488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1977050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Ampliación Proyecto Técnico Nº 99103007 para cultivo de Mitílidos Cultivos Marinos Bahía Yal (CMBY II) (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,30 +4802,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>31/01/2007</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1996488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS BAHÍA YAL Nº SOL. 202103021 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,30 +4850,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>GALICIA YANET ANDRADE BARRÍA</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>04/01/2007</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1909354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL AMPLIACIÓN HATCHERY DE MITILIDOS, ALMEJAS, OSTREIDOS Y PECTÍNIDOS, PESQUERA SAN JOSE S.A. SECTOR TEUPA, BAHÍA YAL, CHONCHI, CHILOE, X REGION. (e-seia)</t>
+          <t>CULTIVOS MARINOS BAHÍA YAL Nº SOL. 202103021 (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Pesquera San José S.A.</t>
+          <t>GALICIA YANET ANDRADE BARRÍA</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>400</v>
+        <v>61</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>02/01/2007</t>
+          <t>04/01/2007</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1909354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL AMPLIACIÓN HATCHERY DE MITILIDOS, ALMEJAS, OSTREIDOS Y PECTÍNIDOS, PESQUERA SAN JOSE S.A. SECTOR TEUPA, BAHÍA YAL, CHONCHI, CHILOE, X REGION. (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Pesquera San José S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>02/01/2007</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa en Centro de Cultivo de Salmonidos VILUPULLI, X Región (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>22/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1890594&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Taller de Redes Servicios Integrales Acuicolas Ltda. Segunda Presentación (e-seia)</t>
+          <t>Ampliación de Biomasa en Centro de Cultivo de Salmonidos VILUPULLI, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Servicios Integrales Acuícolas Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>28</v>
+        <v>10000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>19/12/2006</t>
+          <t>22/12/2006</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1896318&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1890594&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Regularización de Vivero Flotante y Construcción de Salmoducto y Estación de Matanza en Compu (e-seia)</t>
+          <t>Taller de Redes Servicios Integrales Acuicolas Ltda. Segunda Presentación (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Servicios Integrales Acuícolas Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>198</v>
+        <v>28</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>13/12/2006</t>
+          <t>19/12/2006</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1859303&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1896318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa en Centros de Cultivo de Salmónidos Vilupulli, X Región (e-seia)</t>
+          <t>Regularización de Vivero Flotante y Construcción de Salmoducto y Estación de Matanza en Compu (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Salmones Mainstream S.A.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2000</v>
+        <v>198</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>20/11/2006</t>
+          <t>13/12/2006</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1812707&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1859303&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Ampliación de Biomasa en Centros de Cultivo de Salmónidos Vilupulli, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,30 +5186,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Salmones Mainstream S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>20/11/2006</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1812707&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5247,17 +5247,17 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos. Taller de Redes SALMONET S.A. (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,30 +5282,30 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Salmonet S.A</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>20/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1757219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CALETA LINLINAO Nº SOLICITUD 202103022 (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos. Taller de Redes SALMONET S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>CULTIVOS AZULES S.A</t>
+          <t>Salmonet S.A</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>47</v>
+        <v>560</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>23/08/2006</t>
+          <t>20/10/2006</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1645132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1757219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>CULTIVOS MARINOS CALETA LINLINAO Nº SOLICITUD 202103022 (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,20 +5378,20 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>CULTIVOS AZULES S.A</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>23/08/2006</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1645132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS LINLINAO PERT. 97103088 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,20 +5426,20 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>DANIEL RANCISCO IZQUIERDO VARGAS</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>24/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1573153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>CULTIVOS MARINOS LINLINAO PERT. 97103088 (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,30 +5474,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>DANIEL RANCISCO IZQUIERDO VARGAS</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>24/07/2006</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1573153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Vertedero Industrial Controlado Dicham (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,30 +5522,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>FERNANDO PATRICIO HERNANDEZ DIAZ</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>05/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1482676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS Y EMISARIO SUBMARINO, PLANTA DE PROCESO PESQUERA EL GOLFO S.A., CHONCHI, DECIMA REGION (e-seia)</t>
+          <t>Vertedero Industrial Controlado Dicham (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Pesquera El Golfo S.A.</t>
+          <t>FERNANDO PATRICIO HERNANDEZ DIAZ</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>03/05/2006</t>
+          <t>05/06/2006</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1422924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1482676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Proyecto Centro de Acopio y Transferencia Llicaldad (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS Y EMISARIO SUBMARINO, PLANTA DE PROCESO PESQUERA EL GOLFO S.A., CHONCHI, DECIMA REGION (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Pesquera El Golfo S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>188</v>
+        <v>48</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>25/04/2006</t>
+          <t>03/05/2006</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1412559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1422924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Proyecto Centro de Acopio y Transferencia Llicaldad (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,20 +5666,20 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>500</v>
+        <v>188</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>25/04/2006</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1412559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Proyecto Centros de Acopio Llicaldad - Manao (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,30 +5714,30 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Cultivadora de Salmones Linao Ltda</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>07/04/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1382023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Proyecto Centros de Acopio Llicaldad - Manao (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,20 +5762,20 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Cultivadora de Salmones Linao Ltda</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>07/04/2006</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1382023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,25 +5815,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5871,17 +5871,17 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,25 +5911,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Vilupulli (Código Centro 102987) (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,30 +5954,30 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>07/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1279063&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Punta Terao Nº Pert 98103038 (e-seia)</t>
+          <t>Centro de Cultivo de Salmónidos Vilupulli (Código Centro 102987) (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>23/01/2006</t>
+          <t>07/02/2006</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1254363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1279063&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CONSTRUCCION SENDERO DE INTERPRETACION Y CONEXION, COMUNIDAD INDIGENA QUILQUE (e-seia)</t>
+          <t>Centro de Engorda de Salmones Punta Terao Nº Pert 98103038 (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>56</v>
+        <v>800</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>10/11/2005</t>
+          <t>23/01/2006</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1254363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>CONSTRUCCION SENDERO DE INTERPRETACION Y CONEXION, COMUNIDAD INDIGENA QUILQUE (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,20 +6098,20 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>10/11/2005</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>EcoSmolt Rauco (2a Presentación) (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,20 +6146,20 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>6200</v>
+        <v>0</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>17/08/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ECOSMOLT RAUCO (e-seia)</t>
+          <t>EcoSmolt Rauco (2a Presentación) (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6207,17 +6207,17 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>15/07/2005</t>
+          <t>17/08/2005</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=955410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Ostras y Choritos (e-seia)</t>
+          <t>ECOSMOLT RAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>4500</v>
+        <v>6200</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>26/05/2005</t>
+          <t>15/07/2005</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=859536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=955410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>PLANTA DE PROCESO DE RECURSOS HIDROBIOLOGICOS, SECTOR HUITAUQUE, CHONCHI, PROVINCIA DE CHILOE (e-seia)</t>
+          <t>Planta Procesadora de Ostras y Choritos (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,15 +6295,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>ST ANDREWS SMOKY DELICACIES S.A.</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>10/05/2005</t>
+          <t>26/05/2005</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=674991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=859536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Regularización Taller de Redes Servicios Integrales Acuícolas Ltda. (e-seia)</t>
+          <t>PLANTA DE PROCESO DE RECURSOS HIDROBIOLOGICOS, SECTOR HUITAUQUE, CHONCHI, PROVINCIA DE CHILOE (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Servicios Integrales Acuícolas Ltda.</t>
+          <t>ST ANDREWS SMOKY DELICACIES S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>27</v>
+        <v>5500</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>20/12/2004</t>
+          <t>10/05/2005</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=549093&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=674991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR PILPILEHUE-TERAO, COMUNA DE CHONCHI, PROVINCIA DE CHILOE (Sol. Nº 203103070)" (e-seia)</t>
+          <t>Regularización Taller de Redes Servicios Integrales Acuícolas Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>Servicios Integrales Acuícolas Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>701</v>
+        <v>27</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>01/10/2004</t>
+          <t>20/12/2004</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=466891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=549093&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Nueva Planta de Proceso de Salmones Antártica S.A. (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR PILPILEHUE-TERAO, COMUNA DE CHONCHI, PROVINCIA DE CHILOE (Sol. Nº 203103070)" (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,15 +6439,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>6000</v>
+        <v>701</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>01/09/2004</t>
+          <t>01/10/2004</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=437809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=466891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>VERTEDERO INDUSTRIAL CONTROLADO DICHAM (e-seia)</t>
+          <t>Nueva Planta de Proceso de Salmones Antártica S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,25 +6487,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>FERNANDO PATRICIO HERNANDEZ DIAZ</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>01/09/2004</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=406841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=437809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
+          <t>VERTEDERO INDUSTRIAL CONTROLADO DICHAM (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,30 +6530,30 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
+          <t>FERNANDO PATRICIO HERNANDEZ DIAZ</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>22/07/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=406841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>CENTRO DE MITÍLIDOS PILPILEHUE-TERAO N° 203103069 (e-seia)</t>
+          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,20 +6578,20 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>15/07/2004</t>
+          <t>22/07/2004</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=402219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>CENTRO DE MITÍLIDOS PILPILEHUE-TERAO N° 203103069 (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,12 +6626,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>15/07/2004</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=402219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>CENTRO DE MITILICULTURA PILPILEHUE N° 201103190 (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,12 +6674,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>JORGE ALEJANDRO PAREDES MIRANDA</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6687,7 +6687,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>18/06/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=380445&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Chonchi, Sectores Huillinco y Cucao (e-seia)</t>
+          <t>CENTRO DE MITILICULTURA PILPILEHUE N° 201103190 (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,7 +6727,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chonchi</t>
+          <t>JORGE ALEJANDRO PAREDES MIRANDA</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>19/05/2004</t>
+          <t>18/06/2004</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=360482&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=380445&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CULTIVO MARINOS CALIN - Nº PERT: 201103295 (e-seia)</t>
+          <t>Modificación al Plan Regulador Comunal de Chonchi, Sectores Huillinco y Cucao (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,15 +6775,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>CARLA PAULINA RODRIGUEZ PEÑA-RODRIGUEZ</t>
+          <t>Ilustre Municipalidad de Chonchi</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>12/03/2004</t>
+          <t>19/05/2004</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=291016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=360482&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Mejoramiento de área de desarrollo Chanquin, Parque Nacional Chiloé (e-seia)</t>
+          <t>CULTIVO MARINOS CALIN - Nº PERT: 201103295 (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,15 +6823,15 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>CARLA PAULINA RODRIGUEZ PEÑA-RODRIGUEZ</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>276</v>
+        <v>64</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>29/12/2003</t>
+          <t>12/03/2004</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=227755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=291016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Mejoramiento sendero Cucao- Rancho Grande- Colecole- Cucao (e-seia)</t>
+          <t>Mejoramiento de área de desarrollo Chanquin, Parque Nacional Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6875,11 +6875,11 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>17/12/2003</t>
+          <t>29/12/2003</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=227381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=227755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Mejoramiento sendero Cucao- Rancho Grande- Colecole- Cucao (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,20 +6914,20 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>17/12/2003</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=227381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Vertedero Industrial Controlado en Dicham (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,30 +6962,30 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>FERNANDO PATRICIO HERNANDEZ DIAZ</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>28/03/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=64354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao, 1 (N°Sol. 200103194),2 (N° de Sol. 200103195), 3 (N°Sol. 200103197), 4 (N° Sol. 200103192) (e-seia)</t>
+          <t>Vertedero Industrial Controlado en Dicham (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,15 +7015,15 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Jaime Orlando Muena Andrade</t>
+          <t>FERNANDO PATRICIO HERNANDEZ DIAZ</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>549</v>
+        <v>20</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>17/03/2003</t>
+          <t>28/03/2003</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=58392&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=64354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>"Vertedero Industrial Controlado en Dicham" (e-seia)</t>
+          <t>Cultivos Marinos Terao, 1 (N°Sol. 200103194),2 (N° de Sol. 200103195), 3 (N°Sol. 200103197), 4 (N° Sol. 200103192) (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,25 +7063,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>FERNANDO PATRICIO HERNANDEZ DIAZ</t>
+          <t>Jaime Orlando Muena Andrade</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>20</v>
+        <v>549</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>18/02/2003</t>
+          <t>17/03/2003</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=52901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=58392&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>"Línea de Producción de Carbonato de Calcio" (e-seia)</t>
+          <t>"Vertedero Industrial Controlado en Dicham" (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,25 +7111,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>FERNANDO PATRICIO HERNANDEZ DIAZ</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>17/02/2003</t>
+          <t>18/02/2003</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=52499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=52901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles y Emisario Submarino, Planta de Proceso de Salmones, Chonchi, Décima Región (e-seia)</t>
+          <t>"Línea de Producción de Carbonato de Calcio" (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,15 +7159,15 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>SALMOPROCESOS S.A.</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>13/02/2003</t>
+          <t>17/02/2003</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=51820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=52499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Inversiones Errázuriz Ltda.</t>
+          <t>SALMOPROCESOS S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -7215,17 +7215,17 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>16/01/2003</t>
+          <t>13/02/2003</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=44620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=51820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Punta Coñue 1, Isla Linlin, Quinchao Nº Sol. 201103040 (e-seia)</t>
+          <t>Sistema de Tratamiento de Riles y Emisario Submarino, Planta de Proceso de Salmones, Chonchi, Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,25 +7255,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>Inversiones Errázuriz Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>440</v>
+        <v>130</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>07/01/2003</t>
+          <t>16/01/2003</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=42435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=44620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Terao ( Solicitud Nº201103167)</t>
+          <t>Cultivo de Mitílidos en Punta Coñue 1, Isla Linlin, Quinchao Nº Sol. 201103040 (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,25 +7303,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Juan Virgilio Barría Vargas</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>10</v>
+        <v>440</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>05/12/2002</t>
+          <t>07/01/2003</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=42435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Don Carlos Cultivo de Mitílidos en Vilupulli</t>
+          <t>Cultivo de Moluscos en Terao ( Solicitud Nº201103167)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>CARLOS PATRICIO ROJAS OBREGON</t>
+          <t>Juan Virgilio Barría Vargas</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -7359,17 +7359,17 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>15/10/2002</t>
+          <t>05/12/2002</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5947&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Linlinao II Cultivo de Moluscos en Yal Chonchi Chiloé ( Solicitud Nº201103133)</t>
+          <t>Don Carlos Cultivo de Mitílidos en Vilupulli</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,15 +7399,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Orietta De Las Mercedes Bravo Sáez</t>
+          <t>CARLOS PATRICIO ROJAS OBREGON</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>10/10/2002</t>
+          <t>15/10/2002</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5947&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Rampa Toralla</t>
+          <t>Linlinao II Cultivo de Moluscos en Yal Chonchi Chiloé ( Solicitud Nº201103133)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,15 +7447,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>Orietta De Las Mercedes Bravo Sáez</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>242</v>
+        <v>13</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>26/09/2002</t>
+          <t>10/10/2002</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Favari ( Solicitud N°201103058)</t>
+          <t>Rampa Toralla</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,15 +7495,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>María Angélica Riveros Pérez</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>21/08/2002</t>
+          <t>26/09/2002</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Construcción Muelle de Transferencia de Carga para la Industria Salmonera Pesquera Antarfood S.A.</t>
+          <t>Cultivos Marinos Favari ( Solicitud N°201103058)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,15 +7543,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>María Angélica Riveros Pérez</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>17/06/2002</t>
+          <t>21/08/2002</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Piscicultura Alcaldeo Comuna de Chonchi Provicnia de Chiloé X Región ( Solicitud N°201103119</t>
+          <t>Construcción Muelle de Transferencia de Carga para la Industria Salmonera Pesquera Antarfood S.A.</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,15 +7591,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>24/05/2002</t>
+          <t>17/06/2002</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Piscicultura Río Dongo ( Solicitud N°201103110)</t>
+          <t>Piscicultura Alcaldeo Comuna de Chonchi Provicnia de Chiloé X Región ( Solicitud N°201103119</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,25 +7639,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Carlos Marcelo Barría Gunckel</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>04/04/2002</t>
+          <t>24/05/2002</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Planta de Proceso de Salmones en Teupa Marine Harvest Chile S.A.</t>
+          <t>Piscicultura Río Dongo ( Solicitud N°201103110)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,25 +7687,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Carlos Marcelo Barría Gunckel</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>17500</v>
+        <v>1000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>21/03/2002</t>
+          <t>04/04/2002</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Planta de Proceso de Salmones en Teupa, Marine Harvest Chile S.A (e-seia)</t>
+          <t>Planta de Proceso de Salmones en Teupa Marine Harvest Chile S.A.</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7739,7 +7739,7 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=13481&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Instalación Sistema de Tratamiento y Emisario Submarino para la Disposición de Efleuntes Industriales Pesquera Unichile S.A.</t>
+          <t>Planta de Proceso de Salmones en Teupa, Marine Harvest Chile S.A (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,15 +7783,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Pesquera Antarfood S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>12/03/2002</t>
+          <t>21/03/2002</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=13481&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Baeza ( Solicitud N°200103272)</t>
+          <t>Instalación Sistema de Tratamiento y Emisario Submarino para la Disposición de Efleuntes Industriales Pesquera Unichile S.A.</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,15 +7831,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Carlos Guido Baeza Cayun</t>
+          <t>Pesquera Antarfood S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>15/02/2002</t>
+          <t>12/03/2002</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5183&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Cernamar Ostras y Erizos en Teupa N°96103082</t>
+          <t>Cultivos Marinos Baeza ( Solicitud N°200103272)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,15 +7879,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Pesquera Cerna Rosales Ltda.</t>
+          <t>Carlos Guido Baeza Cayun</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>07/02/2002</t>
+          <t>15/02/2002</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5122&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5183&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
+          <t>Cernamar Ostras y Erizos en Teupa N°96103082</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,25 +7927,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Empresa Constructora Contex Ltda.</t>
+          <t>Pesquera Cerna Rosales Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>2000</v>
+        <v>30</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>14/01/2002</t>
+          <t>07/02/2002</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5122&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
+          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>Empresa Constructora Contex Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Proyecto Naudumar</t>
+          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,7 +8023,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Comercial e Industrial Naudumar Ltda.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>31/12/2001</t>
+          <t>14/01/2002</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Modificación Linea Existente Chonchi-Quellón 23 Kv a 110 Kv</t>
+          <t>Proyecto Naudumar</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,15 +8071,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>SOCIEDAD AUSTRAL DE ELECTRICIDAD S.A.</t>
+          <t>Comercial e Industrial Naudumar Ltda.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1860</v>
+        <v>150</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>20/12/2001</t>
+          <t>31/12/2001</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5028&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Terao Cultivo de Moluscos en Canal Yal Chiloe (Solicitud N°98103158)</t>
+          <t>Modificación Linea Existente Chonchi-Quellón 23 Kv a 110 Kv</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,15 +8119,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Victor Hugo Accardi Mansilla</t>
+          <t>SOCIEDAD AUSTRAL DE ELECTRICIDAD S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>140</v>
+        <v>1860</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>05/11/2001</t>
+          <t>20/12/2001</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5028&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Doña Ana III Cultivo de Moluscos en Linlinao Chiloe ( Solicitud N°99103102)</t>
+          <t>Terao Cultivo de Moluscos en Canal Yal Chiloe (Solicitud N°98103158)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Empresa Pesquera APIAO S.A.</t>
+          <t>Victor Hugo Accardi Mansilla</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento con Descarga a Emisario Submarino</t>
+          <t>Doña Ana III Cultivo de Moluscos en Linlinao Chiloe ( Solicitud N°99103102)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,25 +8215,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Empresa Pesquera APIAO S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>25/10/2001</t>
+          <t>05/11/2001</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Estación de Matanza de Salmones en Teupa Marine Harvest Chile S. A.</t>
+          <t>Planta de Tratamiento con Descarga a Emisario Submarino</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,25 +8263,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>09/10/2001</t>
+          <t>25/10/2001</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
+          <t>Estación de Matanza de Salmones en Teupa Marine Harvest Chile S. A.</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,25 +8311,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>50</v>
+        <v>650</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>09/10/2001</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
+          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8363,7 +8363,7 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
+          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Jaime Orlando Muena Andrade</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
+          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Jaime Orlando Muena Andrade</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
+          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8507,7 +8507,7 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
+          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
+          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,25 +8599,25 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Victor Aliro Cárcamo Gómez</t>
+          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>04/10/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
+          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Cesár Washington Mena Pinto</t>
+          <t>Victor Aliro Cárcamo Gómez</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Bahía Yal Pta. Terao 3 PERT 99103038</t>
+          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,15 +8695,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Cultivos Mare Aperto S.A.</t>
+          <t>Cesár Washington Mena Pinto</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>03/10/2001</t>
+          <t>04/10/2001</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Bahía Yal Punta Terao 2 PERT 98103126</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Bahía Yal Pta. Terao 3 PERT 99103038</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8747,7 +8747,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Moluscos Filtradores Bahía Yal Punta Terao 1 PERT 98103145</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Bahía Yal Punta Terao 2 PERT 98103126</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8795,7 +8795,7 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Centro de Engorda de Moluscos Filtradores Bahía Yal Punta Terao 1 PERT 98103145</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,20 +8834,20 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Cultivos Mare Aperto S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>03/10/2001</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Terao MDEB 1 (Sol. N°98103075)</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,30 +8882,30 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>14/09/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesiones Teupa 1 y Teupa 2 (Solicitudes N°99103007 y 99103008)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Terao MDEB 1 (Sol. N°98103075)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,15 +8935,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Luís Rosendo Godoy Castro</t>
+          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>06/09/2001</t>
+          <t>14/09/2001</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4357&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Cultivos Marinos San José (Sol. N°97103135)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesiones Teupa 1 y Teupa 2 (Solicitudes N°99103007 y 99103008)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,15 +8983,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Rosalinda Bustamante Sanchez</t>
+          <t>Luís Rosendo Godoy Castro</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>17/08/2001</t>
+          <t>06/09/2001</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4357&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Centro de Emgorda de Salmones Punta Terao ( Sol. Nº 98103038)</t>
+          <t>Cultivos Marinos San José (Sol. N°97103135)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,15 +9031,15 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>Rosalinda Bustamante Sanchez</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>16/08/2001</t>
+          <t>17/08/2001</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Varadero en Huitaique</t>
+          <t>Centro de Emgorda de Salmones Punta Terao ( Sol. Nº 98103038)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,25 +9079,25 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Sociedad Rene Vergara y Cia Ltda</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>06/08/2001</t>
+          <t>16/08/2001</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Taller de Redes Asesorías Entre Ríos S.A.</t>
+          <t>Varadero en Huitaique</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,25 +9127,25 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>AQUASAAM S.A.</t>
+          <t>Sociedad Rene Vergara y Cia Ltda</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>31/07/2001</t>
+          <t>06/08/2001</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Instalación del Servicio de Alcantarillado y Tratamiento de Aguas Servidas de Huillinco Comuna de Chonchi</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Taller de Redes Asesorías Entre Ríos S.A.</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,15 +9175,15 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chonchi</t>
+          <t>AQUASAAM S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>440</v>
+        <v>70</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>27/06/2001</t>
+          <t>31/07/2001</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4110&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Instalación del Servicio de Alcantarillado y Tratamiento de Aguas Servidas de Cucao Comuna de Chonchi</t>
+          <t>Instalación del Servicio de Alcantarillado y Tratamiento de Aguas Servidas de Huillinco Comuna de Chonchi</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9227,7 +9227,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4110&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Punta Terao - Bahía Yal (Solicitud N°99103130)</t>
+          <t>Instalación del Servicio de Alcantarillado y Tratamiento de Aguas Servidas de Cucao Comuna de Chonchi</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,15 +9271,15 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Francisco José Montenegro Villalón</t>
+          <t>Ilustre Municipalidad de Chonchi</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>10</v>
+        <v>390</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>19/06/2001</t>
+          <t>27/06/2001</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Linlinao Cultivo de Moluscos en Canal Yal Chonchi Chiloé (Sol. N°97103133)</t>
+          <t>Cultivo de Moluscos en Punta Terao - Bahía Yal (Solicitud N°99103130)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,15 +9319,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Orietta De Las Mercedes Bravo Sáez</t>
+          <t>Francisco José Montenegro Villalón</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>13/06/2001</t>
+          <t>19/06/2001</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Caucaman</t>
+          <t>Linlinao Cultivo de Moluscos en Canal Yal Chonchi Chiloé (Sol. N°97103133)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Segundo Caucaman Antiñanco</t>
+          <t>Orietta De Las Mercedes Bravo Sáez</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -9375,7 +9375,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>01/06/2001</t>
+          <t>13/06/2001</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Cabañas Chonchi</t>
+          <t>Cultivos Marinos Caucaman</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,15 +9415,15 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Arno Alfredo Brandau Alvarado</t>
+          <t>Segundo Caucaman Antiñanco</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>02/05/2001</t>
+          <t>01/06/2001</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Vertedero Receptor de Cartones y Materias Inertes ASESAN</t>
+          <t>Cabañas Chonchi</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,25 +9463,25 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Luis Armando Leiton Moraga</t>
+          <t>Arno Alfredo Brandau Alvarado</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>04/04/2001</t>
+          <t>02/05/2001</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3792&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Taller de Redes Salmonet</t>
+          <t>Vertedero Receptor de Cartones y Materias Inertes ASESAN</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,25 +9511,25 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Hrvoje Radic Sylvester</t>
+          <t>Luis Armando Leiton Moraga</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>26/03/2001</t>
+          <t>04/04/2001</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3756&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3792&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Taller Francisca Alarcón (Planta de Tratamiento de Riles)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Taller de Redes Salmonet</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,15 +9559,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>FRANCISCA DEL CARMEN ALARCÓN MANSILLA</t>
+          <t>Hrvoje Radic Sylvester</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>07/02/2001</t>
+          <t>26/03/2001</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3756&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transformación de la Laguna de Estabilización de Chonchi en Lodos Activados</t>
+          <t>Taller Francisca Alarcón (Planta de Tratamiento de Riles)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,15 +9607,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>FRANCISCA DEL CARMEN ALARCÓN MANSILLA</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>790</v>
+        <v>40</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>10/01/2001</t>
+          <t>07/02/2001</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Piscicultura Huillinco N° PERT 200103273</t>
+          <t>Transformación de la Laguna de Estabilización de Chonchi en Lodos Activados</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,25 +9655,25 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Salmones Huillinco S.A.</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>850</v>
+        <v>790</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>20/10/2000</t>
+          <t>10/01/2001</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Piscicultura Rauco Salmones Tecmar Nº PERT 200103252</t>
+          <t>Piscicultura Huillinco N° PERT 200103273</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,25 +9703,25 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Salmones Huillinco S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>200</v>
+        <v>850</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>12/10/2000</t>
+          <t>20/10/2000</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Piscicultura Lago Natri</t>
+          <t>Piscicultura Rauco Salmones Tecmar Nº PERT 200103252</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,25 +9751,25 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Salmones Pacific Star S.A.</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>01/08/2000</t>
+          <t>12/10/2000</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Vilupulli Salmones Mainstream S.A.</t>
+          <t>Piscicultura Lago Natri</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,25 +9799,25 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Salmones Pacific Star S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>21/07/2000</t>
+          <t>01/08/2000</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Proyecto Doña Ismenia Cultivo de Moluscos en Vilupulli</t>
+          <t>Centro de Cultivo de Salmonídeos Vilupulli Salmones Mainstream S.A.</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,15 +9847,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>14/06/2000</t>
+          <t>21/07/2000</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2926&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Astillero Artesanal</t>
+          <t>Proyecto Doña Ismenia Cultivo de Moluscos en Vilupulli</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,15 +9895,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Arcadio Rodrigo Arriagada Oyarzún</t>
+          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>26/05/2000</t>
+          <t>14/06/2000</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2926&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Terao Chonchi Chiloé</t>
+          <t>Astillero Artesanal</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,15 +9943,15 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Marío Cerna Rosales</t>
+          <t>Arcadio Rodrigo Arriagada Oyarzún</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>24/05/2000</t>
+          <t>26/05/2000</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Terao Bahía Yal Chonchi Chiloé</t>
+          <t>Cultivo de Moluscos en Terao Chonchi Chiloé</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9995,7 +9995,7 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>390</v>
+        <v>30</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Ampliación de Especies en Cultivo de Moluscos en el Sector de Terao Chonchi Chiloé</t>
+          <t>Cultivo de Mitílidos en Terao Bahía Yal Chonchi Chiloé</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10043,7 +10043,7 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>60</v>
+        <v>390</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Proyecto Vilupulli: Ampliación de Especies en Cultivo de Moluscos Comuna de Chonchi</t>
+          <t>Ampliación de Especies en Cultivo de Moluscos en el Sector de Terao Chonchi Chiloé</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Martín Antonio Rojas Rojas</t>
+          <t>Marío Cerna Rosales</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2877&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Nuevo Cultivo de Moluscos en el Sector de Terao Chonchi Chiloé</t>
+          <t>Proyecto Vilupulli: Ampliación de Especies en Cultivo de Moluscos Comuna de Chonchi</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Reinaldo Rene Silva Silva</t>
+          <t>Martín Antonio Rojas Rojas</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2877&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Nuevo Cultivo de Moluscos en el Sector de Terao Chonchi Chiloé</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,20 +10178,20 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Reinaldo Rene Silva Silva</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>24/05/2000</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Engorda de Moluscos Bivalvos a Partir del Estado de Semilla</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,20 +10226,20 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Manuel Erasmo Aguilar Aguilar</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>08/02/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Ampliación de Centro de Cultivo de Mítilidos Bahía Yal</t>
+          <t>Engorda de Moluscos Bivalvos a Partir del Estado de Semilla</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,25 +10279,25 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Claudio Gastón Vera Vera</t>
+          <t>Manuel Erasmo Aguilar Aguilar</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>21/01/2000</t>
+          <t>08/02/2000</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Crecimento y Engorda de Abalón Rojo (Solicitud 98103019)</t>
+          <t>Ampliación de Centro de Cultivo de Mítilidos Bahía Yal</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,25 +10327,25 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Natalia del Carmen Gallardo Vidal</t>
+          <t>Claudio Gastón Vera Vera</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>21/12/1999</t>
+          <t>21/01/2000</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Planta de Tratamientos Residuos Líquidos Industriales Producto del Lavado de Redes</t>
+          <t>Crecimento y Engorda de Abalón Rojo (Solicitud 98103019)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,15 +10375,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>AquaChiloe Ltda.</t>
+          <t>Natalia del Carmen Gallardo Vidal</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>580</v>
+        <v>10</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>10/12/1999</t>
+          <t>21/12/1999</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2544&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Engorda de Mitilidos Ostreidos y Pectinidos a Partir del Estado de Semilla - Sector 1</t>
+          <t>Planta de Tratamientos Residuos Líquidos Industriales Producto del Lavado de Redes</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,15 +10423,15 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Juan Virgilio Barría Vargas</t>
+          <t>AquaChiloe Ltda.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>10</v>
+        <v>580</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>30/11/1999</t>
+          <t>10/12/1999</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2544&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Construcción y Operación Subestación Eléctrica Chonchi</t>
+          <t>Engorda de Mitilidos Ostreidos y Pectinidos a Partir del Estado de Semilla - Sector 1</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,15 +10471,15 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Juan Virgilio Barría Vargas</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>650</v>
+        <v>10</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>29/11/1999</t>
+          <t>30/11/1999</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Engorda de Mitilidos Ostreidos y Pectinidos a Partir del Estado de Semilla - Sector 2</t>
+          <t>Construcción y Operación Subestación Eléctrica Chonchi</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,15 +10519,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Juan Virgilio Barría Vargas</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>10</v>
+        <v>650</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>25/11/1999</t>
+          <t>29/11/1999</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2478&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Faja de Delimitación Parque Nacional Chiloé</t>
+          <t>Engorda de Mitilidos Ostreidos y Pectinidos a Partir del Estado de Semilla - Sector 2</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,15 +10567,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, Xº Región</t>
+          <t>Juan Virgilio Barría Vargas</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>08/10/1999</t>
+          <t>25/11/1999</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10585,7 +10585,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2478&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Chonchi</t>
+          <t>Faja de Delimitación Parque Nacional Chiloé</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,15 +10615,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chonchi</t>
+          <t>Corporación Nacional Forestal, Xº Región</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>21/09/1998</t>
+          <t>08/10/1999</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Moluscos Pesquera Albatros S.A.</t>
+          <t>Plan Regulador Comunal de Chonchi</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,15 +10663,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Sociedad de Fomento Industrial y Comercial Albatros S.A. ó Pesquera Albatros</t>
+          <t>Ilustre Municipalidad de Chonchi</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>26/08/1998</t>
+          <t>21/09/1998</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1445&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,43 +10696,91 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
+          <t>Planta Procesadora de Moluscos Pesquera Albatros S.A.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Sociedad de Fomento Industrial y Comercial Albatros S.A. ó Pesquera Albatros</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>26/08/1998</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1445&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>Chonchi</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
           <t>Planta Procesadora de Chorito Congelado</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
         <is>
           <t>Eduardo Lloves Vieira</t>
         </is>
       </c>
-      <c r="F216" t="n">
+      <c r="F217" t="n">
         <v>1640</v>
       </c>
-      <c r="G216" t="inlineStr">
+      <c r="G217" t="inlineStr">
         <is>
           <t>10/08/1998</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I216" t="inlineStr">
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1184&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J216" t="inlineStr">
+      <c r="J217" t="inlineStr">
         <is>
           <t>Chonchi</t>
         </is>

--- a/data/Chonchi.xlsx
+++ b/data/Chonchi.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/01/2023</t>
+          <t>17/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Chonchi.xlsx
+++ b/data/Chonchi.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/02/2023</t>
+          <t>18/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>588</v>
+        <v>300</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>300</v>
+        <v>588</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
+          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Empresa Constructora Contex Ltda.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>2000</v>
+        <v>150</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
+          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>Empresa Constructora Contex Ltda.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
+          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8363,7 +8363,7 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
+          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
+          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Jaime Orlando Muena Andrade</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
+          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8507,7 +8507,7 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
+          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Jaime Orlando Muena Andrade</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
+          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
+          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Victor Aliro Cárcamo Gómez</t>
+          <t>Cesár Washington Mena Pinto</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
+          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,11 +8695,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Cesár Washington Mena Pinto</t>
+          <t>Victor Aliro Cárcamo Gómez</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">

--- a/data/Chonchi.xlsx
+++ b/data/Chonchi.xlsx
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>300</v>
+        <v>588</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>588</v>
+        <v>300</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
+          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>Empresa Constructora Contex Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
+          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Empresa Constructora Contex Ltda.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>2000</v>
+        <v>150</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
+          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8363,7 +8363,7 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
+          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
+          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Jaime Orlando Muena Andrade</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
+          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8507,7 +8507,7 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
+          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Jaime Orlando Muena Andrade</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
+          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
+          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Cesár Washington Mena Pinto</t>
+          <t>Victor Aliro Cárcamo Gómez</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
+          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,11 +8695,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Victor Aliro Cárcamo Gómez</t>
+          <t>Cesár Washington Mena Pinto</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">

--- a/data/Chonchi.xlsx
+++ b/data/Chonchi.xlsx
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>588</v>
+        <v>300</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>300</v>
+        <v>588</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
+          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Empresa Constructora Contex Ltda.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>2000</v>
+        <v>150</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
+          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>Empresa Constructora Contex Ltda.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
+          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8363,7 +8363,7 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
+          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
+          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Jaime Orlando Muena Andrade</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
+          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8507,7 +8507,7 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
+          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Jaime Orlando Muena Andrade</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
+          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
+          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Victor Aliro Cárcamo Gómez</t>
+          <t>Cesár Washington Mena Pinto</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
+          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,11 +8695,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Cesár Washington Mena Pinto</t>
+          <t>Victor Aliro Cárcamo Gómez</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">

--- a/data/Chonchi.xlsx
+++ b/data/Chonchi.xlsx
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>588</v>
+        <v>300</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>300</v>
+        <v>588</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
+          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Empresa Constructora Contex Ltda.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>2000</v>
+        <v>150</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
+          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>Empresa Constructora Contex Ltda.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8119,7 +8119,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>SOCIEDAD AUSTRAL DE ELECTRICIDAD S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
+          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8363,7 +8363,7 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
+          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
+          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Jaime Orlando Muena Andrade</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
+          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8507,7 +8507,7 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
+          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Jaime Orlando Muena Andrade</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
+          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
+          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Victor Aliro Cárcamo Gómez</t>
+          <t>Cesár Washington Mena Pinto</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
+          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,11 +8695,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Cesár Washington Mena Pinto</t>
+          <t>Victor Aliro Cárcamo Gómez</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">

--- a/data/Chonchi.xlsx
+++ b/data/Chonchi.xlsx
@@ -10519,7 +10519,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F212" t="n">

--- a/data/Chonchi.xlsx
+++ b/data/Chonchi.xlsx
@@ -9655,7 +9655,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">

--- a/data/Chonchi.xlsx
+++ b/data/Chonchi.xlsx
@@ -10519,7 +10519,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">

--- a/data/Chonchi.xlsx
+++ b/data/Chonchi.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J217"/>
+  <dimension ref="A1:J218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesadora de Mitílidos</t>
+          <t>Nueva Línea 2x220 kV Gamboa - Chonchi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>SOCIEDAD AUSTRAL DE TRANSMISION TRONCAL S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>12600</v>
+        <v>26431</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/01/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158390164&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160273001&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>?PLANTA DE PROCESO CHONCHI ST. ANDREWS?</t>
+          <t>Ampliación Planta Procesadora de Mitílidos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ST ANDREWS SMOKY DELICACIES S.A.</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>23000</v>
+        <v>12600</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>05/01/2022</t>
+          <t>18/01/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154608078&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158390164&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Eólico Tablaruca</t>
+          <t>?PLANTA DE PROCESO CHONCHI ST. ANDREWS?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Eólica Tablaruca S.A.</t>
+          <t>ST ANDREWS SMOKY DELICACIES S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>170000</v>
+        <v>23000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>27/11/2017</t>
+          <t>05/01/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2134534925&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154608078&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Captación Adicional Cheto para Mini Central de Pasada Hidroeléctrica Dongo SpA</t>
+          <t>Parque Eólico Tablaruca</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Dongo Spa</t>
+          <t>Eólica Tablaruca S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>136</v>
+        <v>170000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>18/07/2017</t>
+          <t>27/11/2017</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132493527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2134534925&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Cultivo de Mitílidos, Sur Punta Terao , Pilpilehue, Comuna de Chonchi, Región de los Lagos. Pert Nº 211103059</t>
+          <t>Captación Adicional Cheto para Mini Central de Pasada Hidroeléctrica Dongo SpA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Hidroeléctrica Dongo Spa</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>29/12/2015</t>
+          <t>18/07/2017</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131040092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132493527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102918 ESTERO CASTRO, RIO BLANCO LTDA.</t>
+          <t>Modificación de Proyecto Técnico Cultivo de Mitílidos, Sur Punta Terao , Pilpilehue, Comuna de Chonchi, Región de los Lagos. Pert Nº 211103059</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SOCIEDAD INDUSTRIAL Y COMERCIAL RIO BLANCO LTDA.</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23/12/2015</t>
+          <t>29/12/2015</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131007655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131040092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, CANAL YAL, QUINCHED, COMUNA DE CHONCHI (SOL Nº 213103045)"</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, CENTRO 102918 ESTERO CASTRO, RIO BLANCO LTDA.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Edgardo Remigio Bórquez Bórquez</t>
+          <t>SOCIEDAD INDUSTRIAL Y COMERCIAL RIO BLANCO LTDA.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>286</v>
+        <v>70</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>31/07/2015</t>
+          <t>23/12/2015</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130657976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131007655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Cultivo Mitílidos y Abalones, Sur Punta Terao, comuna de Chonchi, Región de los Lagos. Código Centro 102550, Nº Pert 210103173</t>
+          <t>MODIFICACION PROYECTO TECNICO "CULTIVO DE MITILIDOS, CANAL YAL, QUINCHED, COMUNA DE CHONCHI (SOL Nº 213103045)"</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cultivos Terao S.A.</t>
+          <t>Edgardo Remigio Bórquez Bórquez</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3350</v>
+        <v>286</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>17/06/2015</t>
+          <t>31/07/2015</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130508325&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130657976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO CENTRO DE CULTIVO MITILIDOS Y ABALONES, SUR PUNTA TERAO , COMUNA DE CHONCHI, REGIÓN DE LOS LAGOS. Nº Pert 210103172</t>
+          <t>Modificación de Proyecto Técnico Cultivo Mitílidos y Abalones, Sur Punta Terao, comuna de Chonchi, Región de los Lagos. Código Centro 102550, Nº Pert 210103173</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -827,11 +827,11 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3000</v>
+        <v>3350</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>28/05/2015</t>
+          <t>17/06/2015</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130436821&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130508325&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Astilleros Chonchi</t>
+          <t>MODIFICACION DE PROYECTO TECNICO CENTRO DE CULTIVO MITILIDOS Y ABALONES, SUR PUNTA TERAO , COMUNA DE CHONCHI, REGIÓN DE LOS LAGOS. Nº Pert 210103172</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Astilleros Chiloé S.A.</t>
+          <t>Cultivos Terao S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>19/02/2015</t>
+          <t>28/05/2015</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130238646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130436821&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Empréstito Andrade, comuna de Chonchi, Región de Los Lagos</t>
+          <t>Declaración de Impacto Ambiental Astilleros Chonchi</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Contructora Tara Compu Ltda</t>
+          <t>Astilleros Chiloé S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>145</v>
+        <v>1000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>09/02/2015</t>
+          <t>19/02/2015</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130149807&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130238646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Astilleros Chonchi</t>
+          <t>Empréstito Andrade, comuna de Chonchi, Región de Los Lagos</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Astilleros Chiloé S.A.</t>
+          <t>Contructora Tara Compu Ltda</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1000</v>
+        <v>145</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>19/01/2015</t>
+          <t>09/02/2015</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130156349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130149807&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO, ESTERO CASTRO - SUR PUNTA CASTILLO - PERT N° 214103009</t>
+          <t>Declaración de Impacto Ambiental Astilleros Chonchi</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CULTIVO DE CHORITOS BAHIA QUINCHED LIMITADA</t>
+          <t>Astilleros Chiloé S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>23/10/2014</t>
+          <t>19/01/2015</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129878172&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130156349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Piscicultura Trainel</t>
+          <t>MODIFICACION DE PROYECTO TECNICO, ESTERO CASTRO - SUR PUNTA CASTILLO - PERT N° 214103009</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>CULTIVO DE CHORITOS BAHIA QUINCHED LIMITADA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1300</v>
+        <v>150</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/06/2014</t>
+          <t>23/10/2014</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129515486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129878172&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico, Sur Punta Terao, Comuna de Chonchi, Región de los Lagos, Pert. Nº 210103170</t>
+          <t>Piscicultura Trainel</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>50</v>
+        <v>1300</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>23/07/2013</t>
+          <t>20/06/2014</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8322283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129515486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Modificación Proyecto Técnico, Sur Punta Terao, Comuna de Chonchi, Región de los Lagos, Pert. Nº 210103170</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,20 +1154,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>23/07/2013</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8322283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,40 +1240,40 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Eólico Cateao</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Eólica Cateao Sp.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>224000</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>27/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8192018&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,30 +1288,30 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Parque Eólico Cateao</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Eólica Cateao Sp.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>250</v>
+        <v>224000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>27/05/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8192018&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>"Manejo De Mortalidad Mediante Sistema De Ensilaje En Centro De Cultivo Sector Linlinao"</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>90</v>
+        <v>2500</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>03/05/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8127069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>"Manejo De Mortalidad Mediante Sistema De Ensilaje En Centro De Cultivo Sector Linlinao"</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2475</v>
+        <v>90</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>03/05/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8127069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PISCICULTURA RÍO TABIL (CURACO DE VILUPULLI), COMUNA DE CHONCHI, PROVINCIA DE CHILOÉ, Xª REGIÓN</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Salmones Llanchid Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>625</v>
+        <v>250</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>02/04/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8025492&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>PISCICULTURA RÍO TABIL (CURACO DE VILUPULLI), COMUNA DE CHONCHI, PROVINCIA DE CHILOÉ, Xª REGIÓN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Salmones Llanchid Ltda.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>250</v>
+        <v>625</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>02/04/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8025492&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Manejo De Mortalidad Mediante Sistema De Ensilaje En Centro De Cultivo Sector Linlinao"</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,20 +1682,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Salmones Mainstream S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>90</v>
+        <v>2475</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>14/12/2012</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7624439&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico Cultivo Mitilidos, Terao Sur, Pilpilehue, comuna de Chonchi, Región de los Lagos. Nº Pert 210103171</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL "Manejo De Mortalidad Mediante Sistema De Ensilaje En Centro De Cultivo Sector Linlinao"</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Inversiones Coihuin Limitada</t>
+          <t>Salmones Mainstream S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>29/08/2012</t>
+          <t>14/12/2012</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7188344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7624439&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Modificación en Planta de Proceso de Salmones Chonchi Modificación Planta de Proceso Salmones Chonchi</t>
+          <t>Modificación de Proyecto Técnico Cultivo Mitilidos, Terao Sur, Pilpilehue, comuna de Chonchi, Región de los Lagos. Nº Pert 210103171</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Procesadora Hueñocoihue SpA.</t>
+          <t>Inversiones Coihuin Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3500</v>
+        <v>50</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>17/08/2012</t>
+          <t>29/08/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7244279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7188344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MANEJO DE MORTALIDAD USANDO SISTEMA DE ENSILAJE</t>
+          <t>Modificación en Planta de Proceso de Salmones Chonchi Modificación Planta de Proceso Salmones Chonchi</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Procesadora Hueñocoihue SpA.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>45</v>
+        <v>3500</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>01/08/2012</t>
+          <t>17/08/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7110102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7244279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>MANEJO DE MORTALIDAD USANDO SISTEMA DE ENSILAJE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>01/08/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7110102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Parque Eólico Cateao</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,20 +1922,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Eólica Cateao Sp.A.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>224000</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>16/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6803159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR QUINCHED, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 205103188)"</t>
+          <t>Parque Eólico Cateao</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>JOSE MILTON VERA VERA</t>
+          <t>Eólica Cateao Sp.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>56</v>
+        <v>224000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>13/04/2012</t>
+          <t>16/04/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6806089&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6803159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR QUINCHED, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 205103188)"</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>JOSE MILTON VERA VERA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>13/04/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6806089&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DE PRODUCCIÓN CENTRO PISCICOLA LAGO TARAHUIN, AL NORTE DEL SECTOR TARAHUIN; Nº PERT: 210103180.</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Tarasalmon Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6124860&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Hidroeléctrica de Pasada Collil</t>
+          <t>REGULARIZACIÓN DE PRODUCCIÓN CENTRO PISCICOLA LAGO TARAHUIN, AL NORTE DEL SECTOR TARAHUIN; Nº PERT: 210103180.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Maderas Tantauco S.A.</t>
+          <t>Tarasalmon Limitada</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>12500</v>
+        <v>1500</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>09/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5991258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6124860&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA TAUCO, X REGION" Nº de Ingreso a Trámite: 211103008 (Código del Centro: 100416)</t>
+          <t>Hidroeléctrica de Pasada Collil</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Maderas Tantauco S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2000</v>
+        <v>12500</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>22/07/2011</t>
+          <t>09/09/2011</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5991258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DIA Manejo de Mortalidad Usando Sistema de Ensilaje Centro Pilpilehue Código 101690</t>
+          <t>"AMPLIACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO DE SALMÓNIDOS PUNTA TAUCO, X REGION" Nº de Ingreso a Trámite: 211103008 (Código del Centro: 100416)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>47</v>
+        <v>2000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>26/05/2011</t>
+          <t>22/07/2011</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5655265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5802961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Centro de Reciclaje y Manejo de Residuos Sólidos No Peligrosos PULPITO</t>
+          <t>DIA Manejo de Mortalidad Usando Sistema de Ensilaje Centro Pilpilehue Código 101690</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Abalones Pacific Star S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2000</v>
+        <v>47</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>02/05/2011</t>
+          <t>26/05/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5582564&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5655265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>21/04/2011</t>
+          <t>02/05/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5582564&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 100367 MOD. PROYECTO TECNICO CENTRO DE CULTIVOS 100367</t>
+          <t>Centro de Reciclaje y Manejo de Residuos Sólidos No Peligrosos PULPITO</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>Abalones Pacific Star S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>23/03/2011</t>
+          <t>21/04/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5438516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad con Sistema de Ensilaje en Centro de Cultivo Tauco - X Región</t>
+          <t>MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS 100367 MOD. PROYECTO TECNICO CENTRO DE CULTIVOS 100367</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>26</v>
+        <v>2000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>22/03/2011</t>
+          <t>23/03/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5438516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Manejo de Mortalidad mediante Ensilaje en Centro de Cultivo de Salmones Teupa</t>
+          <t>Manejo de Mortalidad con Sistema de Ensilaje en Centro de Cultivo Tauco - X Región</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>15/03/2011</t>
+          <t>22/03/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5377421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5474938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en el Sector Zona Los Pinos, Lago Huillinco, para los Centros de Esmoltificación de Salmones: Contento - Huillinco (100.617), Cucao (100.618) y Ensenada Notue (100.616)".</t>
+          <t>Manejo de Mortalidad mediante Ensilaje en Centro de Cultivo de Salmones Teupa</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>14/03/2011</t>
+          <t>15/03/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5377421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Mortalidad Piscicultura Rio Alcaldeo</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en el Sector Zona Los Pinos, Lago Huillinco, para los Centros de Esmoltificación de Salmones: Contento - Huillinco (100.617), Cucao (100.618) y Ensenada Notue (100.616)".</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>28/02/2011</t>
+          <t>14/03/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5401726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Modificación en la producción del centro de cultivo de mitilidos Canal Hudson, al sudeste de Punta Coquemcura, Isla Quinchao, pert Nº210103001, X Región</t>
+          <t>Sistema de Tratamiento de Mortalidad Piscicultura Rio Alcaldeo</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Pesquera El Golfo S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>25/02/2011</t>
+          <t>28/02/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5396122&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5401726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Modificación en la producción del centro de cultivo de mitilidos Ensenada Quinchao, al sureste de Punta Coquemcura, Isla Quinchao, pert Nº210103002, X Región</t>
+          <t>Modificación en la producción del centro de cultivo de mitilidos Canal Hudson, al sudeste de Punta Coquemcura, Isla Quinchao, pert Nº210103001, X Región</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5396482&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5396122&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje. Centro de Mar Camahue</t>
+          <t>Modificación en la producción del centro de cultivo de mitilidos Ensenada Quinchao, al sureste de Punta Coquemcura, Isla Quinchao, pert Nº210103002, X Región</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Pesquera El Golfo S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>42</v>
+        <v>600</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>25/01/2011</t>
+          <t>25/02/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273750&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5396482&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Centro Lago Natri II; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje 0</t>
+          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje. Centro de Mar Camahue</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>21/01/2011</t>
+          <t>25/01/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5267683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273750&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema deEnsilaje de MOrtalidad en Centro de Cultivo de Salmones Aulen</t>
+          <t>Centro Lago Natri II; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje 0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Servicios Integrales S.A.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>20/12/2010</t>
+          <t>21/01/2011</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5267683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Tumaumon</t>
+          <t>Implementación y Operación de Sistema deEnsilaje de MOrtalidad en Centro de Cultivo de Salmones Aulen</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Servicios Integrales S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5177718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5175710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje. Centro de Mar Lincay Modificación a Ensilaje, Centro de Mar Lincay</t>
+          <t>Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Tumaumon</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>20/12/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5126820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5177718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje. Piscicultura Río Trainel</t>
+          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje. Centro de Mar Lincay Modificación a Ensilaje, Centro de Mar Lincay</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>14/10/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5005860&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5126820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Centro Lago Natri I; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
+          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje. Piscicultura Río Trainel</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>14/10/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4880797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5005860&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje. Piscicultura Eco-Smolt Rauco</t>
+          <t>Centro Lago Natri I; Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>24/08/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4859677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4880797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>"DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE CULTIVO DE MITÍLIDOS, QUINCHED, CANAL YAL, CHONCHI Nº PERT: 203103140"</t>
+          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje. Piscicultura Eco-Smolt Rauco</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>16/08/2010</t>
+          <t>24/08/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4842425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4859677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Implementación Sistema de ensilaje Centro Huillinco Sur</t>
+          <t>"DECLARACIÓN DE IMPACTO AMBIENTAL, CENTRO DE CULTIVO DE MITÍLIDOS, QUINCHED, CANAL YAL, CHONCHI Nº PERT: 203103140"</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>48</v>
+        <v>750</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>09/07/2010</t>
+          <t>16/08/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4754852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4842425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
+          <t>Implementación Sistema de ensilaje Centro Huillinco Sur</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>588</v>
+        <v>48</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>09/07/2010</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4754852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>300</v>
+        <v>588</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CALETA LINLINAO, SURGIDERO QUINCHED COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103161)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>588</v>
+        <v>300</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>18/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4686700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PRODUCCION EN CENTRO DE CULTIVO DE SALMONES AGUANTAO (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CALETA LINLINAO, SURGIDERO QUINCHED COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103161)"</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2000</v>
+        <v>588</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>22/12/2009</t>
+          <t>18/06/2010</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4265718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4686700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN VERTEDERO DICHAM (e-seia)</t>
+          <t>AMPLIACION DE PRODUCCION EN CENTRO DE CULTIVO DE SALMONES AGUANTAO (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>FERNANDO PATRICIO HERNANDEZ DIAZ</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>18/12/2009</t>
+          <t>22/12/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4274580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4265718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>MODIFICACIÓN VERTEDERO DICHAM (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>FERNANDO PATRICIO HERNANDEZ DIAZ</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>18/12/2009</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4274580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Mejora Sistema de Tratamiento de Residuos Liquidos Planta de Procesos Antarfood - Chonchi (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Antarfood S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>27/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN NUEVA PLANTA DE PROCESO SALMONES ANTÁRTICA S.A (e-seia)</t>
+          <t>Mejora Sistema de Tratamiento de Residuos Liquidos Planta de Procesos Antarfood - Chonchi (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Antarfood S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>24/11/2009</t>
+          <t>27/11/2009</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4220857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MODIFICACIÓN NUEVA PLANTA DE PROCESO SALMONES ANTÁRTICA S.A (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>377</v>
+        <v>80</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>24/11/2009</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4220857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Modificación de Producción Centro de Cultivo PAC-MAR, Código Centro 102195 (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>INTERSEAFOOD CHILE S.A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>113</v>
+        <v>377</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>14/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4074897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ampliacion de Proyecto Tecnico para el Cultivo de Mitilidos, Canal Yal, Sector Sur Caleta Linlinao, Villamarina - 2 (e-seia)</t>
+          <t>Modificación de Producción Centro de Cultivo PAC-MAR, Código Centro 102195 (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Orietta De Las Mercedes Bravo Sáez</t>
+          <t>INTERSEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>02/10/2009</t>
+          <t>14/10/2009</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4093283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4074897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Plan de Cierre y Sellado Vertedero Municipal Comuna de Chonchi (e-seia)</t>
+          <t>Ampliacion de Proyecto Tecnico para el Cultivo de Mitilidos, Canal Yal, Sector Sur Caleta Linlinao, Villamarina - 2 (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chonchi</t>
+          <t>Orietta De Las Mercedes Bravo Sáez</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>531</v>
+        <v>80</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>22/06/2009</t>
+          <t>02/10/2009</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3840244&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4093283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura Nº PERT 200103154, Bahía Yal, Noroeste Punta Terao, Comuna de Chonchi Solicitud de Concesión de Acuicultura Nº PERT 2001 (e-seia)</t>
+          <t>Plan de Cierre y Sellado Vertedero Municipal Comuna de Chonchi (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>GALICIA YANET ANDRADE BARRÍA</t>
+          <t>Ilustre Municipalidad de Chonchi</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>151</v>
+        <v>531</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>19/06/2009</t>
+          <t>22/06/2009</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3860838&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3840244&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Solicitud de Concesión de Acuicultura Nº PERT 200103154, Bahía Yal, Noroeste Punta Terao, Comuna de Chonchi Solicitud de Concesión de Acuicultura Nº PERT 2001 (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>GALICIA YANET ANDRADE BARRÍA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>19/06/2009</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3860838&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO PAC MAR SECTOR TERAO, CÓDIGO CENTRO 102195 COMUNA DE CHONCHI, PROVINCIA DE CHILOÉ REGIÓN DE LOS LAGOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,20 +3986,20 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>INTERSEAFOOD CHILE S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3265275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>MODIFICACIÓN DE PRODUCCIÓN CENTRO DE CULTIVO PAC MAR SECTOR TERAO, CÓDIGO CENTRO 102195 COMUNA DE CHONCHI, PROVINCIA DE CHILOÉ REGIÓN DE LOS LAGOS (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>INTERSEAFOOD CHILE S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3265275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PEQUEÑA CENTRAL HIDROELECTRICA DONGO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Klaus Von Storch Krugen</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>9000</v>
+        <v>20</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>27/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3002745&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Hidroelectrica Dongo Limitada</t>
+          <t>Klaus Von Storch Krugen</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -4287,17 +4287,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>02/06/2008</t>
+          <t>27/06/2008</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2942301&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3002745&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>PEQUEÑA CENTRAL HIDROELECTRICA DONGO (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,20 +4322,20 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Hidroelectrica Dongo Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>20</v>
+        <v>9000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>02/06/2008</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2942301&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico para el cultivo de mitílidos, Linlinao Canal Yal, Villa Marina - 1 N° Pert 206103192 (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Villa Marina Cultivos Limitada.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>01/02/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2682185&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Ampliación de Proyecto Técnico para el cultivo de mitílidos, Linlinao Canal Yal, Villa Marina - 1 N° Pert 206103192 (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Sociedad Comercial Villa Marina Cultivos Limitada.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>01/02/2008</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2682185&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Piscicultura de Recirculación Lago Verde (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>8000</v>
+        <v>234</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>14/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2398063&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ampliación de Proyecto Técnico para el cultivo de Mitílidos, Abalón Rojo y Macrocystis sp. del Centro Vilupulli, Sector Canal Lemuy, Comuna de Chonchi, Provincia de Chiloé, X Región de Los Lagos. (e-seia)</t>
+          <t>Piscicultura de Recirculación Lago Verde (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>251</v>
+        <v>8000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>06/09/2007</t>
+          <t>14/09/2007</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2365943&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2398063&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación de Proyecto Técnico para el cultivo de Mitílidos, Abalón Rojo y Macrocystis sp. del Centro Vilupulli, Sector Canal Lemuy, Comuna de Chonchi, Provincia de Chiloé, X Región de Los Lagos. (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>06/09/2007</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2365943&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Disposición Final Riles (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,30 +4658,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ROJAS Y SANCHEZ LIMITADA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>29/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2084510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTA TERAO Nº SOL. 200103175 (e-seia)</t>
+          <t>Disposición Final Riles (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
+          <t>ROJAS Y SANCHEZ LIMITADA</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>15/03/2007</t>
+          <t>29/03/2007</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2042254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2084510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ampliación Proyecto Técnico Cultivo de Mitílidos Cultivos Marinos Bahía Yal (CMBY) (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTA TERAO Nº SOL. 200103175 (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>RICHARD JUVENAL TRIVIÑO MANSILLA</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>31/01/2007</t>
+          <t>15/03/2007</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1977050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2042254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ampliación Proyecto Técnico Nº 99103007 para cultivo de Mitílidos Cultivos Marinos Bahía Yal (CMBY II) (e-seia)</t>
+          <t>Ampliación Proyecto Técnico Cultivo de Mitílidos Cultivos Marinos Bahía Yal (CMBY) (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4811,7 +4811,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>380</v>
+        <v>111</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1996488&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1977050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Ampliación Proyecto Técnico Nº 99103007 para cultivo de Mitílidos Cultivos Marinos Bahía Yal (CMBY II) (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,30 +4850,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>31/01/2007</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1996488&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS BAHÍA YAL Nº SOL. 202103021 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,30 +4898,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>GALICIA YANET ANDRADE BARRÍA</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>04/01/2007</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1909354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL AMPLIACIÓN HATCHERY DE MITILIDOS, ALMEJAS, OSTREIDOS Y PECTÍNIDOS, PESQUERA SAN JOSE S.A. SECTOR TEUPA, BAHÍA YAL, CHONCHI, CHILOE, X REGION. (e-seia)</t>
+          <t>CULTIVOS MARINOS BAHÍA YAL Nº SOL. 202103021 (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Pesquera San José S.A.</t>
+          <t>GALICIA YANET ANDRADE BARRÍA</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>400</v>
+        <v>61</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>02/01/2007</t>
+          <t>04/01/2007</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1909354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL AMPLIACIÓN HATCHERY DE MITILIDOS, ALMEJAS, OSTREIDOS Y PECTÍNIDOS, PESQUERA SAN JOSE S.A. SECTOR TEUPA, BAHÍA YAL, CHONCHI, CHILOE, X REGION. (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Pesquera San José S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>02/01/2007</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa en Centro de Cultivo de Salmonidos VILUPULLI, X Región (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,30 +5042,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>22/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1890594&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Taller de Redes Servicios Integrales Acuicolas Ltda. Segunda Presentación (e-seia)</t>
+          <t>Ampliación de Biomasa en Centro de Cultivo de Salmonidos VILUPULLI, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Servicios Integrales Acuícolas Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>28</v>
+        <v>10000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>19/12/2006</t>
+          <t>22/12/2006</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1896318&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1890594&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Regularización de Vivero Flotante y Construcción de Salmoducto y Estación de Matanza en Compu (e-seia)</t>
+          <t>Taller de Redes Servicios Integrales Acuicolas Ltda. Segunda Presentación (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Servicios Integrales Acuícolas Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>198</v>
+        <v>28</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>13/12/2006</t>
+          <t>19/12/2006</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1859303&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1896318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ampliación de Biomasa en Centros de Cultivo de Salmónidos Vilupulli, X Región (e-seia)</t>
+          <t>Regularización de Vivero Flotante y Construcción de Salmoducto y Estación de Matanza en Compu (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Salmones Mainstream S.A.</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2000</v>
+        <v>198</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>20/11/2006</t>
+          <t>13/12/2006</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1812707&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1859303&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Ampliación de Biomasa en Centros de Cultivo de Salmónidos Vilupulli, X Región (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,30 +5234,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Salmones Mainstream S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>20/11/2006</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1812707&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5295,17 +5295,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos. Taller de Redes SALMONET S.A. (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,30 +5330,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Salmonet S.A</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>20/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1757219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CALETA LINLINAO Nº SOLICITUD 202103022 (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos. Taller de Redes SALMONET S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>CULTIVOS AZULES S.A</t>
+          <t>Salmonet S.A</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>47</v>
+        <v>560</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>23/08/2006</t>
+          <t>20/10/2006</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1645132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1757219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>CULTIVOS MARINOS CALETA LINLINAO Nº SOLICITUD 202103022 (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,20 +5426,20 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>CULTIVOS AZULES S.A</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>23/08/2006</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1645132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS LINLINAO PERT. 97103088 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,20 +5474,20 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>DANIEL RANCISCO IZQUIERDO VARGAS</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>24/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1573153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>CULTIVOS MARINOS LINLINAO PERT. 97103088 (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,30 +5522,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>DANIEL RANCISCO IZQUIERDO VARGAS</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>24/07/2006</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1573153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Vertedero Industrial Controlado Dicham (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,30 +5570,30 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>FERNANDO PATRICIO HERNANDEZ DIAZ</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>05/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1482676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS Y EMISARIO SUBMARINO, PLANTA DE PROCESO PESQUERA EL GOLFO S.A., CHONCHI, DECIMA REGION (e-seia)</t>
+          <t>Vertedero Industrial Controlado Dicham (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Pesquera El Golfo S.A.</t>
+          <t>FERNANDO PATRICIO HERNANDEZ DIAZ</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>03/05/2006</t>
+          <t>05/06/2006</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1422924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1482676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Proyecto Centro de Acopio y Transferencia Llicaldad (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS Y EMISARIO SUBMARINO, PLANTA DE PROCESO PESQUERA EL GOLFO S.A., CHONCHI, DECIMA REGION (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Pesquera El Golfo S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>188</v>
+        <v>48</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>25/04/2006</t>
+          <t>03/05/2006</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1412559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1422924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Proyecto Centro de Acopio y Transferencia Llicaldad (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,20 +5714,20 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>500</v>
+        <v>188</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>25/04/2006</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1412559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Proyecto Centros de Acopio Llicaldad - Manao (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,30 +5762,30 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Cultivadora de Salmones Linao Ltda</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>07/04/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1382023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Proyecto Centros de Acopio Llicaldad - Manao (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,20 +5810,20 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Cultivadora de Salmones Linao Ltda</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>07/04/2006</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1382023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,25 +5863,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5919,17 +5919,17 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Vilupulli (Código Centro 102987) (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,30 +6002,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>07/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1279063&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Punta Terao Nº Pert 98103038 (e-seia)</t>
+          <t>Centro de Cultivo de Salmónidos Vilupulli (Código Centro 102987) (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>23/01/2006</t>
+          <t>07/02/2006</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1254363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1279063&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>CONSTRUCCION SENDERO DE INTERPRETACION Y CONEXION, COMUNIDAD INDIGENA QUILQUE (e-seia)</t>
+          <t>Centro de Engorda de Salmones Punta Terao Nº Pert 98103038 (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>56</v>
+        <v>800</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>10/11/2005</t>
+          <t>23/01/2006</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1254363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>CONSTRUCCION SENDERO DE INTERPRETACION Y CONEXION, COMUNIDAD INDIGENA QUILQUE (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,20 +6146,20 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>10/11/2005</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1111330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>EcoSmolt Rauco (2a Presentación) (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,20 +6194,20 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>6200</v>
+        <v>0</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>17/08/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ECOSMOLT RAUCO (e-seia)</t>
+          <t>EcoSmolt Rauco (2a Presentación) (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6255,17 +6255,17 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>15/07/2005</t>
+          <t>17/08/2005</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=955410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Ostras y Choritos (e-seia)</t>
+          <t>ECOSMOLT RAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>4500</v>
+        <v>6200</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>26/05/2005</t>
+          <t>15/07/2005</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=859536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=955410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>PLANTA DE PROCESO DE RECURSOS HIDROBIOLOGICOS, SECTOR HUITAUQUE, CHONCHI, PROVINCIA DE CHILOE (e-seia)</t>
+          <t>Planta Procesadora de Ostras y Choritos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,15 +6343,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ST ANDREWS SMOKY DELICACIES S.A.</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>10/05/2005</t>
+          <t>26/05/2005</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=674991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=859536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Regularización Taller de Redes Servicios Integrales Acuícolas Ltda. (e-seia)</t>
+          <t>PLANTA DE PROCESO DE RECURSOS HIDROBIOLOGICOS, SECTOR HUITAUQUE, CHONCHI, PROVINCIA DE CHILOE (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Servicios Integrales Acuícolas Ltda.</t>
+          <t>ST ANDREWS SMOKY DELICACIES S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>27</v>
+        <v>5500</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>20/12/2004</t>
+          <t>10/05/2005</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=549093&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=674991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR PILPILEHUE-TERAO, COMUNA DE CHONCHI, PROVINCIA DE CHILOE (Sol. Nº 203103070)" (e-seia)</t>
+          <t>Regularización Taller de Redes Servicios Integrales Acuícolas Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,25 +6439,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>Servicios Integrales Acuícolas Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>701</v>
+        <v>27</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>01/10/2004</t>
+          <t>20/12/2004</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=466891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=549093&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Nueva Planta de Proceso de Salmones Antártica S.A. (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR PILPILEHUE-TERAO, COMUNA DE CHONCHI, PROVINCIA DE CHILOE (Sol. Nº 203103070)" (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,15 +6487,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>6000</v>
+        <v>701</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>01/09/2004</t>
+          <t>01/10/2004</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=437809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=466891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>VERTEDERO INDUSTRIAL CONTROLADO DICHAM (e-seia)</t>
+          <t>Nueva Planta de Proceso de Salmones Antártica S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,25 +6535,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>FERNANDO PATRICIO HERNANDEZ DIAZ</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>01/09/2004</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=406841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=437809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
+          <t>VERTEDERO INDUSTRIAL CONTROLADO DICHAM (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,30 +6578,30 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
+          <t>FERNANDO PATRICIO HERNANDEZ DIAZ</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>22/07/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=406841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>CENTRO DE MITÍLIDOS PILPILEHUE-TERAO N° 203103069 (e-seia)</t>
+          <t>NAVE ESPECIAL PARA COSECHA DE SALMONES DE CULTIVO (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,20 +6626,20 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>PROCESADORA MARITIMA RIO CISNES S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>15/07/2004</t>
+          <t>22/07/2004</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=402219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>CENTRO DE MITÍLIDOS PILPILEHUE-TERAO N° 203103069 (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,12 +6674,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6687,7 +6687,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>15/07/2004</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=402219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>CENTRO DE MITILICULTURA PILPILEHUE N° 201103190 (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,12 +6722,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>JORGE ALEJANDRO PAREDES MIRANDA</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>18/06/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=380445&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Chonchi, Sectores Huillinco y Cucao (e-seia)</t>
+          <t>CENTRO DE MITILICULTURA PILPILEHUE N° 201103190 (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chonchi</t>
+          <t>JORGE ALEJANDRO PAREDES MIRANDA</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>19/05/2004</t>
+          <t>18/06/2004</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=360482&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=380445&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>CULTIVO MARINOS CALIN - Nº PERT: 201103295 (e-seia)</t>
+          <t>Modificación al Plan Regulador Comunal de Chonchi, Sectores Huillinco y Cucao (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,15 +6823,15 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>CARLA PAULINA RODRIGUEZ PEÑA-RODRIGUEZ</t>
+          <t>Ilustre Municipalidad de Chonchi</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>12/03/2004</t>
+          <t>19/05/2004</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=291016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=360482&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Mejoramiento de área de desarrollo Chanquin, Parque Nacional Chiloé (e-seia)</t>
+          <t>CULTIVO MARINOS CALIN - Nº PERT: 201103295 (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,15 +6871,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>CARLA PAULINA RODRIGUEZ PEÑA-RODRIGUEZ</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>276</v>
+        <v>64</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>29/12/2003</t>
+          <t>12/03/2004</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=227755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=291016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Mejoramiento sendero Cucao- Rancho Grande- Colecole- Cucao (e-seia)</t>
+          <t>Mejoramiento de área de desarrollo Chanquin, Parque Nacional Chiloé (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6923,11 +6923,11 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>17/12/2003</t>
+          <t>29/12/2003</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=227381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=227755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Mejoramiento sendero Cucao- Rancho Grande- Colecole- Cucao (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,20 +6962,20 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>17/12/2003</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=227381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Vertedero Industrial Controlado en Dicham (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,30 +7010,30 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>FERNANDO PATRICIO HERNANDEZ DIAZ</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>28/03/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=64354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao, 1 (N°Sol. 200103194),2 (N° de Sol. 200103195), 3 (N°Sol. 200103197), 4 (N° Sol. 200103192) (e-seia)</t>
+          <t>Vertedero Industrial Controlado en Dicham (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,15 +7063,15 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Jaime Orlando Muena Andrade</t>
+          <t>FERNANDO PATRICIO HERNANDEZ DIAZ</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>549</v>
+        <v>20</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>17/03/2003</t>
+          <t>28/03/2003</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=58392&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=64354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>"Vertedero Industrial Controlado en Dicham" (e-seia)</t>
+          <t>Cultivos Marinos Terao, 1 (N°Sol. 200103194),2 (N° de Sol. 200103195), 3 (N°Sol. 200103197), 4 (N° Sol. 200103192) (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,25 +7111,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>FERNANDO PATRICIO HERNANDEZ DIAZ</t>
+          <t>Jaime Orlando Muena Andrade</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>20</v>
+        <v>549</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>18/02/2003</t>
+          <t>17/03/2003</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=52901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=58392&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>"Línea de Producción de Carbonato de Calcio" (e-seia)</t>
+          <t>"Vertedero Industrial Controlado en Dicham" (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,25 +7159,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>FERNANDO PATRICIO HERNANDEZ DIAZ</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>17/02/2003</t>
+          <t>18/02/2003</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=52499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=52901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles y Emisario Submarino, Planta de Proceso de Salmones, Chonchi, Décima Región (e-seia)</t>
+          <t>"Línea de Producción de Carbonato de Calcio" (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,15 +7207,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>SALMOPROCESOS S.A.</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>13/02/2003</t>
+          <t>17/02/2003</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=51820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=52499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Inversiones Errázuriz Ltda.</t>
+          <t>SALMOPROCESOS S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -7263,17 +7263,17 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>16/01/2003</t>
+          <t>13/02/2003</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=44620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=51820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Punta Coñue 1, Isla Linlin, Quinchao Nº Sol. 201103040 (e-seia)</t>
+          <t>Sistema de Tratamiento de Riles y Emisario Submarino, Planta de Proceso de Salmones, Chonchi, Décima Región (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,25 +7303,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>Inversiones Errázuriz Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>440</v>
+        <v>130</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>07/01/2003</t>
+          <t>16/01/2003</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=42435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=44620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Terao ( Solicitud Nº201103167)</t>
+          <t>Cultivo de Mitílidos en Punta Coñue 1, Isla Linlin, Quinchao Nº Sol. 201103040 (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,25 +7351,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Juan Virgilio Barría Vargas</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>10</v>
+        <v>440</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>05/12/2002</t>
+          <t>07/01/2003</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=42435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Don Carlos Cultivo de Mitílidos en Vilupulli</t>
+          <t>Cultivo de Moluscos en Terao ( Solicitud Nº201103167)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,7 +7399,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>CARLOS PATRICIO ROJAS OBREGON</t>
+          <t>Juan Virgilio Barría Vargas</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -7407,17 +7407,17 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>15/10/2002</t>
+          <t>05/12/2002</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5947&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Linlinao II Cultivo de Moluscos en Yal Chonchi Chiloé ( Solicitud Nº201103133)</t>
+          <t>Don Carlos Cultivo de Mitílidos en Vilupulli</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,15 +7447,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Orietta De Las Mercedes Bravo Sáez</t>
+          <t>CARLOS PATRICIO ROJAS OBREGON</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>10/10/2002</t>
+          <t>15/10/2002</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5947&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Rampa Toralla</t>
+          <t>Linlinao II Cultivo de Moluscos en Yal Chonchi Chiloé ( Solicitud Nº201103133)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,15 +7495,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>TORALLA S.A.</t>
+          <t>Orietta De Las Mercedes Bravo Sáez</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>242</v>
+        <v>13</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>26/09/2002</t>
+          <t>10/10/2002</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5902&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Favari ( Solicitud N°201103058)</t>
+          <t>Rampa Toralla</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,15 +7543,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>María Angélica Riveros Pérez</t>
+          <t>TORALLA S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>21/08/2002</t>
+          <t>26/09/2002</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5902&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Construcción Muelle de Transferencia de Carga para la Industria Salmonera Pesquera Antarfood S.A.</t>
+          <t>Cultivos Marinos Favari ( Solicitud N°201103058)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,15 +7591,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Antarfood S. A.</t>
+          <t>María Angélica Riveros Pérez</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>17/06/2002</t>
+          <t>21/08/2002</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5577&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Piscicultura Alcaldeo Comuna de Chonchi Provicnia de Chiloé X Región ( Solicitud N°201103119</t>
+          <t>Construcción Muelle de Transferencia de Carga para la Industria Salmonera Pesquera Antarfood S.A.</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,15 +7639,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Antarfood S. A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>24/05/2002</t>
+          <t>17/06/2002</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5577&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Piscicultura Río Dongo ( Solicitud N°201103110)</t>
+          <t>Piscicultura Alcaldeo Comuna de Chonchi Provicnia de Chiloé X Región ( Solicitud N°201103119</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,25 +7687,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Carlos Marcelo Barría Gunckel</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>04/04/2002</t>
+          <t>24/05/2002</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Planta de Proceso de Salmones en Teupa Marine Harvest Chile S.A.</t>
+          <t>Piscicultura Río Dongo ( Solicitud N°201103110)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,25 +7735,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Carlos Marcelo Barría Gunckel</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>17500</v>
+        <v>1000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>21/03/2002</t>
+          <t>04/04/2002</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Planta de Proceso de Salmones en Teupa, Marine Harvest Chile S.A (e-seia)</t>
+          <t>Planta de Proceso de Salmones en Teupa Marine Harvest Chile S.A.</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7787,7 +7787,7 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=13481&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Instalación Sistema de Tratamiento y Emisario Submarino para la Disposición de Efleuntes Industriales Pesquera Unichile S.A.</t>
+          <t>Planta de Proceso de Salmones en Teupa, Marine Harvest Chile S.A (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,15 +7831,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Pesquera Antarfood S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>12/03/2002</t>
+          <t>21/03/2002</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=13481&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Baeza ( Solicitud N°200103272)</t>
+          <t>Instalación Sistema de Tratamiento y Emisario Submarino para la Disposición de Efleuntes Industriales Pesquera Unichile S.A.</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,15 +7879,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Carlos Guido Baeza Cayun</t>
+          <t>Pesquera Antarfood S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>15/02/2002</t>
+          <t>12/03/2002</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5183&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Cernamar Ostras y Erizos en Teupa N°96103082</t>
+          <t>Cultivos Marinos Baeza ( Solicitud N°200103272)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,15 +7927,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Pesquera Cerna Rosales Ltda.</t>
+          <t>Carlos Guido Baeza Cayun</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>07/02/2002</t>
+          <t>15/02/2002</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5122&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5183&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
+          <t>Cernamar Ostras y Erizos en Teupa N°96103082</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,25 +7975,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Empresa Constructora Contex Ltda.</t>
+          <t>Pesquera Cerna Rosales Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>2000</v>
+        <v>30</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>14/01/2002</t>
+          <t>07/02/2002</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5122&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
+          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>Empresa Constructora Contex Ltda.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Proyecto Naudumar</t>
+          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,7 +8071,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Comercial e Industrial Naudumar Ltda.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
@@ -8079,7 +8079,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>31/12/2001</t>
+          <t>14/01/2002</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Modificación Linea Existente Chonchi-Quellón 23 Kv a 110 Kv</t>
+          <t>Proyecto Naudumar</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,15 +8119,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Comercial e Industrial Naudumar Ltda.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1860</v>
+        <v>150</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>20/12/2001</t>
+          <t>31/12/2001</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5028&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Terao Cultivo de Moluscos en Canal Yal Chiloe (Solicitud N°98103158)</t>
+          <t>Modificación Linea Existente Chonchi-Quellón 23 Kv a 110 Kv</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,15 +8167,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Victor Hugo Accardi Mansilla</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>140</v>
+        <v>1860</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>05/11/2001</t>
+          <t>20/12/2001</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5028&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Doña Ana III Cultivo de Moluscos en Linlinao Chiloe ( Solicitud N°99103102)</t>
+          <t>Terao Cultivo de Moluscos en Canal Yal Chiloe (Solicitud N°98103158)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Empresa Pesquera APIAO S.A.</t>
+          <t>Victor Hugo Accardi Mansilla</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento con Descarga a Emisario Submarino</t>
+          <t>Doña Ana III Cultivo de Moluscos en Linlinao Chiloe ( Solicitud N°99103102)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,25 +8263,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Empresa Pesquera APIAO S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>25/10/2001</t>
+          <t>05/11/2001</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Estación de Matanza de Salmones en Teupa Marine Harvest Chile S. A.</t>
+          <t>Planta de Tratamiento con Descarga a Emisario Submarino</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,25 +8311,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>09/10/2001</t>
+          <t>25/10/2001</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
+          <t>Estación de Matanza de Salmones en Teupa Marine Harvest Chile S. A.</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,25 +8359,25 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>50</v>
+        <v>650</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>09/10/2001</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
+          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8411,7 +8411,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
+          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Jaime Orlando Muena Andrade</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
+          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Jaime Orlando Muena Andrade</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
+          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8555,7 +8555,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
+          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
+          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,25 +8647,25 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Victor Aliro Cárcamo Gómez</t>
+          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>04/10/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
+          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,11 +8695,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Cesár Washington Mena Pinto</t>
+          <t>Victor Aliro Cárcamo Gómez</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Bahía Yal Pta. Terao 3 PERT 99103038</t>
+          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,15 +8743,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Cultivos Mare Aperto S.A.</t>
+          <t>Cesár Washington Mena Pinto</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>03/10/2001</t>
+          <t>04/10/2001</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Bahía Yal Punta Terao 2 PERT 98103126</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Bahía Yal Pta. Terao 3 PERT 99103038</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8795,7 +8795,7 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Moluscos Filtradores Bahía Yal Punta Terao 1 PERT 98103145</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Bahía Yal Punta Terao 2 PERT 98103126</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8843,7 +8843,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Centro de Engorda de Moluscos Filtradores Bahía Yal Punta Terao 1 PERT 98103145</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,20 +8882,20 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Cultivos Mare Aperto S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>03/10/2001</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Terao MDEB 1 (Sol. N°98103075)</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,30 +8930,30 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>14/09/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesiones Teupa 1 y Teupa 2 (Solicitudes N°99103007 y 99103008)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Sector Terao MDEB 1 (Sol. N°98103075)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,15 +8983,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Luís Rosendo Godoy Castro</t>
+          <t>MANUEL DENIS ETCHEVERS BARRIENTOS</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>06/09/2001</t>
+          <t>14/09/2001</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4357&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Cultivos Marinos San José (Sol. N°97103135)</t>
+          <t>Engorda de Mitílidos a Partir del Estado de Semilla Concesiones Teupa 1 y Teupa 2 (Solicitudes N°99103007 y 99103008)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,15 +9031,15 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Rosalinda Bustamante Sanchez</t>
+          <t>Luís Rosendo Godoy Castro</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>17/08/2001</t>
+          <t>06/09/2001</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4357&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Centro de Emgorda de Salmones Punta Terao ( Sol. Nº 98103038)</t>
+          <t>Cultivos Marinos San José (Sol. N°97103135)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,15 +9079,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>Rosalinda Bustamante Sanchez</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>16/08/2001</t>
+          <t>17/08/2001</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Varadero en Huitaique</t>
+          <t>Centro de Emgorda de Salmones Punta Terao ( Sol. Nº 98103038)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,25 +9127,25 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Sociedad Rene Vergara y Cia Ltda</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>06/08/2001</t>
+          <t>16/08/2001</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Taller de Redes Asesorías Entre Ríos S.A.</t>
+          <t>Varadero en Huitaique</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,25 +9175,25 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>AQUASAAM S.A.</t>
+          <t>Sociedad Rene Vergara y Cia Ltda</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>31/07/2001</t>
+          <t>06/08/2001</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Instalación del Servicio de Alcantarillado y Tratamiento de Aguas Servidas de Huillinco Comuna de Chonchi</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Taller de Redes Asesorías Entre Ríos S.A.</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,15 +9223,15 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chonchi</t>
+          <t>AQUASAAM S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>440</v>
+        <v>70</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>27/06/2001</t>
+          <t>31/07/2001</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4110&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Instalación del Servicio de Alcantarillado y Tratamiento de Aguas Servidas de Cucao Comuna de Chonchi</t>
+          <t>Instalación del Servicio de Alcantarillado y Tratamiento de Aguas Servidas de Huillinco Comuna de Chonchi</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9275,7 +9275,7 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4110&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Punta Terao - Bahía Yal (Solicitud N°99103130)</t>
+          <t>Instalación del Servicio de Alcantarillado y Tratamiento de Aguas Servidas de Cucao Comuna de Chonchi</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,15 +9319,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Francisco José Montenegro Villalón</t>
+          <t>Ilustre Municipalidad de Chonchi</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>10</v>
+        <v>390</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>19/06/2001</t>
+          <t>27/06/2001</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Linlinao Cultivo de Moluscos en Canal Yal Chonchi Chiloé (Sol. N°97103133)</t>
+          <t>Cultivo de Moluscos en Punta Terao - Bahía Yal (Solicitud N°99103130)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,15 +9367,15 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Orietta De Las Mercedes Bravo Sáez</t>
+          <t>Francisco José Montenegro Villalón</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>13/06/2001</t>
+          <t>19/06/2001</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Caucaman</t>
+          <t>Linlinao Cultivo de Moluscos en Canal Yal Chonchi Chiloé (Sol. N°97103133)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Segundo Caucaman Antiñanco</t>
+          <t>Orietta De Las Mercedes Bravo Sáez</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9423,7 +9423,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>01/06/2001</t>
+          <t>13/06/2001</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Cabañas Chonchi</t>
+          <t>Cultivos Marinos Caucaman</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,15 +9463,15 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Arno Alfredo Brandau Alvarado</t>
+          <t>Segundo Caucaman Antiñanco</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>02/05/2001</t>
+          <t>01/06/2001</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Vertedero Receptor de Cartones y Materias Inertes ASESAN</t>
+          <t>Cabañas Chonchi</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,25 +9511,25 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Luis Armando Leiton Moraga</t>
+          <t>Arno Alfredo Brandau Alvarado</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>04/04/2001</t>
+          <t>02/05/2001</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3792&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Taller de Redes Salmonet</t>
+          <t>Vertedero Receptor de Cartones y Materias Inertes ASESAN</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,25 +9559,25 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Hrvoje Radic Sylvester</t>
+          <t>Luis Armando Leiton Moraga</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>26/03/2001</t>
+          <t>04/04/2001</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3756&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3792&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Taller Francisca Alarcón (Planta de Tratamiento de Riles)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos Taller de Redes Salmonet</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,15 +9607,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>FRANCISCA DEL CARMEN ALARCÓN MANSILLA</t>
+          <t>Hrvoje Radic Sylvester</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>07/02/2001</t>
+          <t>26/03/2001</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3756&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transformación de la Laguna de Estabilización de Chonchi en Lodos Activados</t>
+          <t>Taller Francisca Alarcón (Planta de Tratamiento de Riles)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,15 +9655,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Suralis S.A.</t>
+          <t>FRANCISCA DEL CARMEN ALARCÓN MANSILLA</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>790</v>
+        <v>40</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>10/01/2001</t>
+          <t>07/02/2001</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Piscicultura Huillinco N° PERT 200103273</t>
+          <t>Transformación de la Laguna de Estabilización de Chonchi en Lodos Activados</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,25 +9703,25 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Salmones Huillinco S.A.</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>850</v>
+        <v>790</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>20/10/2000</t>
+          <t>10/01/2001</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Piscicultura Rauco Salmones Tecmar Nº PERT 200103252</t>
+          <t>Piscicultura Huillinco N° PERT 200103273</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,25 +9751,25 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Salmones Tecmar S.A.</t>
+          <t>Salmones Huillinco S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>200</v>
+        <v>850</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>12/10/2000</t>
+          <t>20/10/2000</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Piscicultura Lago Natri</t>
+          <t>Piscicultura Rauco Salmones Tecmar Nº PERT 200103252</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,25 +9799,25 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Salmones Pacific Star S.A.</t>
+          <t>Salmones Tecmar S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>01/08/2000</t>
+          <t>12/10/2000</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Vilupulli Salmones Mainstream S.A.</t>
+          <t>Piscicultura Lago Natri</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,25 +9847,25 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Salmones Pacific Star S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>21/07/2000</t>
+          <t>01/08/2000</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Proyecto Doña Ismenia Cultivo de Moluscos en Vilupulli</t>
+          <t>Centro de Cultivo de Salmonídeos Vilupulli Salmones Mainstream S.A.</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,15 +9895,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>14/06/2000</t>
+          <t>21/07/2000</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2926&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Astillero Artesanal</t>
+          <t>Proyecto Doña Ismenia Cultivo de Moluscos en Vilupulli</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,15 +9943,15 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Arcadio Rodrigo Arriagada Oyarzún</t>
+          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>26/05/2000</t>
+          <t>14/06/2000</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2926&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos en Terao Chonchi Chiloé</t>
+          <t>Astillero Artesanal</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,15 +9991,15 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Marío Cerna Rosales</t>
+          <t>Arcadio Rodrigo Arriagada Oyarzún</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>24/05/2000</t>
+          <t>26/05/2000</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos en Terao Bahía Yal Chonchi Chiloé</t>
+          <t>Cultivo de Moluscos en Terao Chonchi Chiloé</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10043,7 +10043,7 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>390</v>
+        <v>30</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2874&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Ampliación de Especies en Cultivo de Moluscos en el Sector de Terao Chonchi Chiloé</t>
+          <t>Cultivo de Mitílidos en Terao Bahía Yal Chonchi Chiloé</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10091,7 +10091,7 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>60</v>
+        <v>390</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2874&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Proyecto Vilupulli: Ampliación de Especies en Cultivo de Moluscos Comuna de Chonchi</t>
+          <t>Ampliación de Especies en Cultivo de Moluscos en el Sector de Terao Chonchi Chiloé</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Martín Antonio Rojas Rojas</t>
+          <t>Marío Cerna Rosales</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2877&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Nuevo Cultivo de Moluscos en el Sector de Terao Chonchi Chiloé</t>
+          <t>Proyecto Vilupulli: Ampliación de Especies en Cultivo de Moluscos Comuna de Chonchi</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Reinaldo Rene Silva Silva</t>
+          <t>Martín Antonio Rojas Rojas</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2877&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Nuevo Cultivo de Moluscos en el Sector de Terao Chonchi Chiloé</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,20 +10226,20 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Reinaldo Rene Silva Silva</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>24/05/2000</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Engorda de Moluscos Bivalvos a Partir del Estado de Semilla</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,20 +10274,20 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Manuel Erasmo Aguilar Aguilar</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>08/02/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Ampliación de Centro de Cultivo de Mítilidos Bahía Yal</t>
+          <t>Engorda de Moluscos Bivalvos a Partir del Estado de Semilla</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,25 +10327,25 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Claudio Gastón Vera Vera</t>
+          <t>Manuel Erasmo Aguilar Aguilar</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>21/01/2000</t>
+          <t>08/02/2000</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Crecimento y Engorda de Abalón Rojo (Solicitud 98103019)</t>
+          <t>Ampliación de Centro de Cultivo de Mítilidos Bahía Yal</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,25 +10375,25 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Natalia del Carmen Gallardo Vidal</t>
+          <t>Claudio Gastón Vera Vera</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>21/12/1999</t>
+          <t>21/01/2000</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Planta de Tratamientos Residuos Líquidos Industriales Producto del Lavado de Redes</t>
+          <t>Crecimento y Engorda de Abalón Rojo (Solicitud 98103019)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,15 +10423,15 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>AquaChiloe Ltda.</t>
+          <t>Natalia del Carmen Gallardo Vidal</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>580</v>
+        <v>10</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>10/12/1999</t>
+          <t>21/12/1999</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2544&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Engorda de Mitilidos Ostreidos y Pectinidos a Partir del Estado de Semilla - Sector 1</t>
+          <t>Planta de Tratamientos Residuos Líquidos Industriales Producto del Lavado de Redes</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,15 +10471,15 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Juan Virgilio Barría Vargas</t>
+          <t>AquaChiloe Ltda.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>10</v>
+        <v>580</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>30/11/1999</t>
+          <t>10/12/1999</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2544&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Construcción y Operación Subestación Eléctrica Chonchi</t>
+          <t>Engorda de Mitilidos Ostreidos y Pectinidos a Partir del Estado de Semilla - Sector 1</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,15 +10519,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Juan Virgilio Barría Vargas</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>650</v>
+        <v>10</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>29/11/1999</t>
+          <t>30/11/1999</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Engorda de Mitilidos Ostreidos y Pectinidos a Partir del Estado de Semilla - Sector 2</t>
+          <t>Construcción y Operación Subestación Eléctrica Chonchi</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,15 +10567,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Juan Virgilio Barría Vargas</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>10</v>
+        <v>650</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>25/11/1999</t>
+          <t>29/11/1999</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10585,7 +10585,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2478&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Faja de Delimitación Parque Nacional Chiloé</t>
+          <t>Engorda de Mitilidos Ostreidos y Pectinidos a Partir del Estado de Semilla - Sector 2</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,15 +10615,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, Xº Región</t>
+          <t>Juan Virgilio Barría Vargas</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>08/10/1999</t>
+          <t>25/11/1999</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10633,7 +10633,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2478&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Chonchi</t>
+          <t>Faja de Delimitación Parque Nacional Chiloé</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,15 +10663,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Chonchi</t>
+          <t>Corporación Nacional Forestal, Xº Región</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>21/09/1998</t>
+          <t>08/10/1999</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Moluscos Pesquera Albatros S.A.</t>
+          <t>Plan Regulador Comunal de Chonchi</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,15 +10711,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Sociedad de Fomento Industrial y Comercial Albatros S.A. ó Pesquera Albatros</t>
+          <t>Ilustre Municipalidad de Chonchi</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>26/08/1998</t>
+          <t>21/09/1998</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1445&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,43 +10744,91 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
+          <t>Planta Procesadora de Moluscos Pesquera Albatros S.A.</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Sociedad de Fomento Industrial y Comercial Albatros S.A. ó Pesquera Albatros</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>26/08/1998</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1445&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>Chonchi</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
           <t>Planta Procesadora de Chorito Congelado</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
         <is>
           <t>Eduardo Lloves Vieira</t>
         </is>
       </c>
-      <c r="F217" t="n">
+      <c r="F218" t="n">
         <v>1640</v>
       </c>
-      <c r="G217" t="inlineStr">
+      <c r="G218" t="inlineStr">
         <is>
           <t>10/08/1998</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I217" t="inlineStr">
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1184&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J217" t="inlineStr">
+      <c r="J218" t="inlineStr">
         <is>
           <t>Chonchi</t>
         </is>

--- a/data/Chonchi.xlsx
+++ b/data/Chonchi.xlsx
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>588</v>
+        <v>300</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,16 +3410,16 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>300</v>
+        <v>588</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
+          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Empresa Constructora Contex Ltda.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>2000</v>
+        <v>150</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
+          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>Empresa Constructora Contex Ltda.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
+          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8411,7 +8411,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
+          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
+          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Jaime Orlando Muena Andrade</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
+          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8555,7 +8555,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
+          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Jaime Orlando Muena Andrade</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
+          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
+          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,11 +8695,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Victor Aliro Cárcamo Gómez</t>
+          <t>Cesár Washington Mena Pinto</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
+          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,11 +8743,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Cesár Washington Mena Pinto</t>
+          <t>Victor Aliro Cárcamo Gómez</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">

--- a/data/Chonchi.xlsx
+++ b/data/Chonchi.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>20/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Chonchi.xlsx
+++ b/data/Chonchi.xlsx
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>300</v>
+        <v>588</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,16 +3410,16 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>588</v>
+        <v>300</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
+          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>Empresa Constructora Contex Ltda.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
+          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Empresa Constructora Contex Ltda.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>2000</v>
+        <v>150</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
+          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8411,7 +8411,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
+          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
+          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Jaime Orlando Muena Andrade</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
+          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8555,7 +8555,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
+          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Jaime Orlando Muena Andrade</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
+          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
+          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,11 +8695,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Cesár Washington Mena Pinto</t>
+          <t>Victor Aliro Cárcamo Gómez</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
+          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,11 +8743,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Victor Aliro Cárcamo Gómez</t>
+          <t>Cesár Washington Mena Pinto</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">

--- a/data/Chonchi.xlsx
+++ b/data/Chonchi.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>300</v>
+        <v>588</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,16 +3410,16 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>588</v>
+        <v>300</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
+          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>Empresa Constructora Contex Ltda.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
+          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Empresa Constructora Contex Ltda.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>2000</v>
+        <v>150</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
+          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8411,7 +8411,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
+          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
+          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Jaime Orlando Muena Andrade</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
+          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8555,7 +8555,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
+          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Jaime Orlando Muena Andrade</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
+          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
+          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,11 +8695,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Cesár Washington Mena Pinto</t>
+          <t>Victor Aliro Cárcamo Gómez</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
+          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,11 +8743,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Victor Aliro Cárcamo Gómez</t>
+          <t>Cesár Washington Mena Pinto</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">

--- a/data/Chonchi.xlsx
+++ b/data/Chonchi.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Chonchi.xlsx
+++ b/data/Chonchi.xlsx
@@ -3415,7 +3415,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
+          <t>Edgardo Remigio Bórquez Bórquez</t>
         </is>
       </c>
       <c r="F64" t="n">

--- a/data/Chonchi.xlsx
+++ b/data/Chonchi.xlsx
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Edgardo Remigio Bórquez Bórquez</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>300</v>
+        <v>588</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL YAL, SURGIDERO QUINCHED 2, COMUNA DE CHONCHI, X REGIÓN (SOL Nº 207103160)"</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,16 +3410,16 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Edgardo Remigio Bórquez Bórquez</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>588</v>
+        <v>300</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
+          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>EMPRESA PESQUERA APIAO S.A.</t>
+          <t>Empresa Constructora Contex Ltda.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Ampliación Administración y Operación del Muelle Fiscal de Chonchi Provincia de Chiloé X Región</t>
+          <t>Engorda de Moluscos y Bivalvos a Partir del Estado de Semilla en Teupa N° Pert 201103258</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Empresa Constructora Contex Ltda.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>2000</v>
+        <v>150</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5073&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
+          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8411,7 +8411,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
+          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 4 N° PERT N°200103192</t>
+          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Jaime Orlando Muena Andrade</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 1 N° Pert 200103194</t>
+          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8555,7 +8555,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 2 N° Pert 200103195</t>
+          <t>Cultivos Marinos Terao 5 N° Pert 200103196</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Jaime Orlando Muena Andrade</t>
+          <t>Aqua Smolt Chiloé S A</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Terao 3 N° Pert 200103197</t>
+          <t>Don René Ampliación de Especies en Cultivo de Moluscos N° 99103128</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Aqua Smolt Chiloé S A</t>
+          <t>Cultivos Marinos Vilupulli y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
+          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,11 +8695,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Cesár Washington Mena Pinto</t>
+          <t>Victor Aliro Cárcamo Gómez</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Tauco Cultivo de Moluscos en Chonchi (N° Pert 99103115)</t>
+          <t>Cultivo de Mitílidos Cesar Mena P. N° de Solicitud 97103208</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,11 +8743,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Victor Aliro Cárcamo Gómez</t>
+          <t>Cesár Washington Mena Pinto</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
